--- a/data/hotels_by_city/Houston/Houston_shard_541.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_541.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d1676156-Reviews-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Residence-Inn-By-Marriott-Houston-Katy-Mills.h3374555.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531617057682&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=bc00beb3-94b6-45f6-936f-2861e9a26367&amp;mctc=9&amp;exp_dp=105.4&amp;exp_ts=1531617058215&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1347 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r594157393-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>1676156</t>
+  </si>
+  <si>
+    <t>594157393</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Big Group potluck</t>
+  </si>
+  <si>
+    <t>Check in was fine. Our room was right in front of the elevator, not where we like to stay. You hear the elevator ding all night. The room itself was nice, very modern. There was no stove and a small 2 pot burner to cook if you wanted to. The kitchen sink was nice and big. Full size fridge. We brought the 2 kids and our little yorkie.  The A/C cooled our room really well. So everyone was comfy.  We had a king size bed. The sheets are not as soft as Home 2 Suites. The bed was okay. The pull out for the kids was a queen and it was fine for them. They do not have a designated area for the pets to go potty, even though they do allow pets. Had to just pee on plants and bushes.  Pool area was a bit dangerous,  my kid and several other people slipped walking to the pool. Should probably make it safer to walk to pool. The pool was small but kids enjoyed it.  Probably will not stay here again unless we have to. Nice hotel but it's the small stuff  that matter to us. Comfy bed and soft sheets a place for the animals to go potty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Check in was fine. Our room was right in front of the elevator, not where we like to stay. You hear the elevator ding all night. The room itself was nice, very modern. There was no stove and a small 2 pot burner to cook if you wanted to. The kitchen sink was nice and big. Full size fridge. We brought the 2 kids and our little yorkie.  The A/C cooled our room really well. So everyone was comfy.  We had a king size bed. The sheets are not as soft as Home 2 Suites. The bed was okay. The pull out for the kids was a queen and it was fine for them. They do not have a designated area for the pets to go potty, even though they do allow pets. Had to just pee on plants and bushes.  Pool area was a bit dangerous,  my kid and several other people slipped walking to the pool. Should probably make it safer to walk to pool. The pool was small but kids enjoyed it.  Probably will not stay here again unless we have to. Nice hotel but it's the small stuff  that matter to us. Comfy bed and soft sheets a place for the animals to go potty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r594133788-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>594133788</t>
+  </si>
+  <si>
+    <t>Atypical for a Residence Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at several Residence Inns around the USA. This one was recently remodeled. In the process, they removed all the carpets in my “platinum upgraded suite” and replaced it with all tile. The “living room”  was sparse with furnishings. Basically just a couch, and not that comfortable at that. Not the homey feel that most Residences give, but It is convenient to the highway if you are needing a good place to stay. The staff members are friendly and the coffee was good. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r593972462-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>593972462</t>
+  </si>
+  <si>
+    <t>Playing Softball</t>
+  </si>
+  <si>
+    <t>Really pleased with this hotel.  Got it at a great price. Very Nice rooms and facilities.  Great staff.  Especially front desk person,  Noor!  Good breakfast and close to everything.  No complaints and would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r557743711-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>557743711</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Just fine</t>
+  </si>
+  <si>
+    <t>Have stayed a couple of timesIt is a good place to set up office for a work stayService and breakfast i okThe area around the hotel has s lot to offers, a mall, dinner places, some shopping etc with in 5-10 drive or walkind distance</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r541631440-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>541631440</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I stayed at the Residence Inn for an extended stay. The entire team is excellent and are always very helpful! Great breakfast selection and clean rooms. Excellent gym, clean pool, hot tub and basketball court. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r531664610-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>531664610</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>clean facilities, responsive staff</t>
+  </si>
+  <si>
+    <t>As a Marriott platinum member, I don't usually use the Residence Inn brand, but decided to try it this time.  We were looking for 1-2 nights in a convenient location while our home was being remodeled.  This hotel is right by Katy Mills mall, yet it is very quiet.  The suite was a good size and the kitchen was well-appointed.  We could have easily cooked in the room.After we checked out, we realized we needed to stay another night.  Management was very responsive and got us an upgraded room.Based on my experience with this hotel, I will definitely be using the Residence Inn brand more often now.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r491299467-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491299467</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Family time</t>
+  </si>
+  <si>
+    <t>We had 2 bedroom suite, top floor, clean room, comfortable beds, even the sofa bed.  Front desk very helpful.  We didn't hear any highway noise, did not use pool.  Breakfast was nice, oatmeal was watery though</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r490518395-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>490518395</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were visiting from California and grateful for a familiar property. Residence Inn is our preferred property and this location did not disappoint. There was a little glitch finding the property; our car's navigation system and our iPhone directions took us to the wrong address. We made a call to the hotel, the staff explained they issue with similar street names and gave us accurate directions. There's plenty of shopping, restaurants, gas stations, and activities for families within close proximity. Would definitely recommend this property when your in the area. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r486039873-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>486039873</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Very Convenient</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn, with kitchen makes it so convenient when staying more than 1 night.  Room was clean and great housekeeping service. Breakfast was good.  Front desk service was good and responsive. The convenience of direct billing due to a good relationship with my Company is a big plus.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r464157103-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>464157103</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>Just returned from a one night stay. Very nice property. Friendly staff, large clean, quite room. Comfortable bed &amp; loved the pillows. Free ber, wine &amp; snacks in the evening in the lobby. Very nice hot, fresh breakfast buffet in the mornings. Rooms, hallways &amp;lobby areas very nice &amp; inviting. Separate living area, complete kitchen if you wish to cook.  Easy access off i-10 &amp; across from the Mall with several food options nearby. Really enjoyed my stay here &amp; will be returning soon with recommendations to family &amp; friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Dana W, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Just returned from a one night stay. Very nice property. Friendly staff, large clean, quite room. Comfortable bed &amp; loved the pillows. Free ber, wine &amp; snacks in the evening in the lobby. Very nice hot, fresh breakfast buffet in the mornings. Rooms, hallways &amp;lobby areas very nice &amp; inviting. Separate living area, complete kitchen if you wish to cook.  Easy access off i-10 &amp; across from the Mall with several food options nearby. Really enjoyed my stay here &amp; will be returning soon with recommendations to family &amp; friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r462121506-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>462121506</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>We stayed here for nights for my great-nieces wedding and was very pleased. The location was great our one bedroom suite was up to date ,the breakfast was good and the staff was great. We liked the location because it was close to the interstate plus lots of restaurantsMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for nights for my great-nieces wedding and was very pleased. The location was great our one bedroom suite was up to date ,the breakfast was good and the staff was great. We liked the location because it was close to the interstate plus lots of restaurantsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r453692399-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>453692399</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Just like at Home!</t>
+  </si>
+  <si>
+    <t>Absolutely nothing negative to say!!!!!  Our room was So comfortable and felt like home!  The beds were very comfortable and the room was immaculately clean.  You could tell the housekeepers take pride in their work.  Breakfast was very good.  Fresh fruit and never short of coffee!  Eggs were good as well.  4 choices of cereal.  The ladies working the breakfast area were always making sure that the tables were clean and there was plenty of food available.We will always stay here when we come to Katy, Texas!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r421869863-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>421869863</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Clean, super staff and good location for outlet shopping</t>
+  </si>
+  <si>
+    <t>Located across the road of the outlet shopping centre if you desire to go there. It was clean and the staff was nice and helpful. Free parking. The selection of breakfast items was good. If you want to see downtown Houston it might be a bit far out, but if you have a car the drive isn't too long. Will definately stay here again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r393371247-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>393371247</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Will stay here again if i go to Katy</t>
+  </si>
+  <si>
+    <t>Ver bice place to stay. Very clean and comfortable. Staff is quite nice and friendly.Site is very close to Katy Mills Mall so perfect for those that like shopping as well.Two complaints may just be that the beds are too soft for me and that the shuttle does not run  regarly (mon to wed only) but they do grocery shoppin for you if you need it.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r385686417-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>385686417</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable with Super Staff</t>
+  </si>
+  <si>
+    <t>I was there for two weeks.  The employees were friendly and went the extra step to help in any way.  The breakfast and social were consistently good.  The hotel was open and light and clean.  My room was clean, and the bed was comfy.  I had a one bedroom, and it was a good size and not tiny like some hotels.  It was quiet with two elevators.  Convenient to lots of stores, restaurants, yet set off enough to be quiet.  I would highly recommend it for short or longer stays.  The only drawback was Direct TV was out for several days, but that was not the hotel's fault.  We had limited service for a few days.  The selection was fairly limited on channels that I liked, but that is minor.  The TV was a good size and not too small.  They could also recycle and use less plastic, but at least they don't have those single-use plastic coffee makers.  Room had cooktop, microwave, toaster and full size fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was there for two weeks.  The employees were friendly and went the extra step to help in any way.  The breakfast and social were consistently good.  The hotel was open and light and clean.  My room was clean, and the bed was comfy.  I had a one bedroom, and it was a good size and not tiny like some hotels.  It was quiet with two elevators.  Convenient to lots of stores, restaurants, yet set off enough to be quiet.  I would highly recommend it for short or longer stays.  The only drawback was Direct TV was out for several days, but that was not the hotel's fault.  We had limited service for a few days.  The selection was fairly limited on channels that I liked, but that is minor.  The TV was a good size and not too small.  They could also recycle and use less plastic, but at least they don't have those single-use plastic coffee makers.  Room had cooktop, microwave, toaster and full size fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r377115717-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>377115717</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel in the Area!</t>
+  </si>
+  <si>
+    <t>Really awesome, CLEAN rooms, work-out center, and lobby, and a polite and helpful staff!  We had friends staying at other hotels in the area, and those places were not nearly as nice as this hotel.  We paid less and had much more!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r373163660-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>373163660</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>It was a superb experience. Room was clean. The breakfast buffet had many options, though it became monotonous and boring by the second week. There is a Walmart nearby and a large shopping mall opposite. I would love to visit again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r368580852-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>368580852</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Close to our home</t>
+  </si>
+  <si>
+    <t>We rent a suite here every Thanksgiving for family overflow... They have good prices and two large rooms and free breakfast.  Its new and clean.  Adjacent to a major shopping center, the Katy Mills Mall, and theatre.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Dana W, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded May 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2016</t>
+  </si>
+  <si>
+    <t>We rent a suite here every Thanksgiving for family overflow... They have good prices and two large rooms and free breakfast.  Its new and clean.  Adjacent to a major shopping center, the Katy Mills Mall, and theatre.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r334386226-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>334386226</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>We picked this hotel because of its location . .. west of the airport area to give us a head start on our destination for the next day, close to the I-10, and that any Residence Inn we have stayed in has never disappointed.The bed was super comfortable, the room arrangement was just lovely giving you addition space to move and relax without having to flop into bed right away.  Everything was pristine clean.  The front desk staff were very helpful all the way around and suggested an amazing place to have dinner.You will always get bonus points from me when wi-fi is included in the price .. .. charging extra makes my blood boil . .. and including breakfast with the room.  The breakfast was lovely and the breakfast area was so beautifully decorated for Christmas.Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this hotel because of its location . .. west of the airport area to give us a head start on our destination for the next day, close to the I-10, and that any Residence Inn we have stayed in has never disappointed.The bed was super comfortable, the room arrangement was just lovely giving you addition space to move and relax without having to flop into bed right away.  Everything was pristine clean.  The front desk staff were very helpful all the way around and suggested an amazing place to have dinner.You will always get bonus points from me when wi-fi is included in the price .. .. charging extra makes my blood boil . .. and including breakfast with the room.  The breakfast was lovely and the breakfast area was so beautifully decorated for Christmas.Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r331521208-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>331521208</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Handy hotel</t>
+  </si>
+  <si>
+    <t>Right my Katy Mills mall, but suprisingly quiet. Rooms and house keeping good. Full sized kitchen. Bonus of free breakfast which is pretty varied. Some nights they have free drinks and snacks outside by the fire pit.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r329953082-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>329953082</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Sabrina set the tone for one of our best hotel stays ever. In truth, she manages EVERYthing to ensure satisfaction and a great work environment. Breakfasts are very good and we were able to easily manage our own diet restrictions very well.The hotel and rooms are kept in order and clean. All washer/dryers are in working order... expected, but not always true in hotels. It's an easy walk to the Katy Mills Mall or to dine at several local restaurants. I would highly recommend this hotel. If you are lucky enough to have a pet, the hotel has welcoming policies for them, too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r310202164-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>310202164</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing necklace </t>
+  </si>
+  <si>
+    <t>I am staying in this hotel at the moment and I am not happy I left my pandora necklace in the room to go to the gym now it's missing I go to the front desk and told them the manager says to me mam our maid has been with us for five years I said bit my necklace is missing this is a pandora necklace with charm worth 3000 dollars she spoke to me as if I am the wrong one not nice at all so we got the police in I said what would happen now she said there is nothing they can do I am not happy at all the manager needs to take a lesson on how to deal with hotel guests and put safes in the rooms now that I have no necklace MoreShow less</t>
+  </si>
+  <si>
+    <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>I am staying in this hotel at the moment and I am not happy I left my pandora necklace in the room to go to the gym now it's missing I go to the front desk and told them the manager says to me mam our maid has been with us for five years I said bit my necklace is missing this is a pandora necklace with charm worth 3000 dollars she spoke to me as if I am the wrong one not nice at all so we got the police in I said what would happen now she said there is nothing they can do I am not happy at all the manager needs to take a lesson on how to deal with hotel guests and put safes in the rooms now that I have no necklace More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r309169618-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>309169618</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Forgotten phone not found</t>
+  </si>
+  <si>
+    <t>On checkout I forgot my a pretty new BB Z10 in the room. I called back on reaching my destination only to be told the phone was not found. The staff who picked my call told me to hold on whilst he goes to check the room. He also said he would send me a mail after thoroughly checking the room. I haven't heard from the hotel till now. Very disappointing. I expected that with this caliber of hotel, forgotten items should be kept safely and not stolen.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded September 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2015</t>
+  </si>
+  <si>
+    <t>On checkout I forgot my a pretty new BB Z10 in the room. I called back on reaching my destination only to be told the phone was not found. The staff who picked my call told me to hold on whilst he goes to check the room. He also said he would send me a mail after thoroughly checking the room. I haven't heard from the hotel till now. Very disappointing. I expected that with this caliber of hotel, forgotten items should be kept safely and not stolen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r301802245-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>301802245</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We travelled to the Houston area to attend a wedding and this hotel was where the guests were staying. Check in was fast and the front desk and all the employees that we encountered were nice. Our room was spacious and included a mini kitchen area. We only made coffee and used the fridge to store leftovers, but you could cook meals here if you wanted to. All the utensils were provided. The kids enjoyed the pool, using it during the day and at night. Breakfast had plenty of choices for everyone in our group.The Katy Mills Mall is right across the parking lot, so you could walk there or in our case drive since it was around 95 degrees. About 1 mile away is the No Label Brewing Company if you like to try local brewed beer. Starbucks is also less than 1 mile away, so you can have your morning walk and get your coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>We travelled to the Houston area to attend a wedding and this hotel was where the guests were staying. Check in was fast and the front desk and all the employees that we encountered were nice. Our room was spacious and included a mini kitchen area. We only made coffee and used the fridge to store leftovers, but you could cook meals here if you wanted to. All the utensils were provided. The kids enjoyed the pool, using it during the day and at night. Breakfast had plenty of choices for everyone in our group.The Katy Mills Mall is right across the parking lot, so you could walk there or in our case drive since it was around 95 degrees. About 1 mile away is the No Label Brewing Company if you like to try local brewed beer. Starbucks is also less than 1 mile away, so you can have your morning walk and get your coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r293321298-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>293321298</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vey displeased </t>
+  </si>
+  <si>
+    <t>The front desk staff was very rude and not very accommodating at all. I was here for 4 days for my Anniversary. I planned on haveing a stove. I called 3 months in advance and made reservations. I was told by a staff at the property every room has ovens. WRONG.  I ASKED FOR 30 MIN LATER C/O. I was told the night of my last night that housekeeping said no late check outs. Then i called that morning and i was told no bc he was booked tonight. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>The front desk staff was very rude and not very accommodating at all. I was here for 4 days for my Anniversary. I planned on haveing a stove. I called 3 months in advance and made reservations. I was told by a staff at the property every room has ovens. WRONG.  I ASKED FOR 30 MIN LATER C/O. I was told the night of my last night that housekeeping said no late check outs. Then i called that morning and i was told no bc he was booked tonight. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r293068206-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>293068206</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>We were there 2 nights for a wedding and the room was never cleaned.  The pool was hot, filthy and never checked.  It was the end of July and the pool was lukewarm. You could see bugs floating in the water and there was debris on the bottom of the pool. The rooms were nice but some had a bad smell.  The weekday daytime staff were not at all accommodating and acted like everything was a bother.  None of housekeeping spoke English and could not be communicated with.  The nighttime and weekend staff were delightful though and should be given immediate raises!  The breakfast was pretty good.  No complaints there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>We were there 2 nights for a wedding and the room was never cleaned.  The pool was hot, filthy and never checked.  It was the end of July and the pool was lukewarm. You could see bugs floating in the water and there was debris on the bottom of the pool. The rooms were nice but some had a bad smell.  The weekday daytime staff were not at all accommodating and acted like everything was a bother.  None of housekeeping spoke English and could not be communicated with.  The nighttime and weekend staff were delightful though and should be given immediate raises!  The breakfast was pretty good.  No complaints there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r292482648-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>292482648</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Accommodation: The rooms are spacious and clean. The air-conditioning worked great, quiet and even throughout the 2 rooms. We loved the kitchen, with full-size refrigerator, microwave oven and electric stove. The dining set, silverware and cooking/kitchen utensils also came in handy. We have toddlers so the setup was perfect for us to make some home-made meals for them, as well as stocking up on snacks and juice.
+Proximity: Across from Katy Mills (Outlet) Mall. We were able to literally walk across the parking lot (and a small street) to the mall. Besides the stores, it also had a food-court, merry-go-around, and a small play area for kids. We went there a couple times after dinner and stayed almost until when the mall was closed. The parking lot and the surround area are safe and well-lit. There were also a couple restaurants across the street from the hotel. In addition, there was a Super Wal-Mart nearby (about less than 10 minutes drive, non-highway) with a McDonald’s inside. I made a couple quick runs there for water bottles, food and household items, and found it to be convenient.
+Staff: Everyone that we met was friendly, from the front desk, to the housekeepers, to the kitchen/breakfast staff. They went out of their way to make sure our stay was pleasant. I had issue with the ethernet cable and wi-fi connection in my room the first day I checked in and contacted the front...Accommodation: The rooms are spacious and clean. The air-conditioning worked great, quiet and even throughout the 2 rooms. We loved the kitchen, with full-size refrigerator, microwave oven and electric stove. The dining set, silverware and cooking/kitchen utensils also came in handy. We have toddlers so the setup was perfect for us to make some home-made meals for them, as well as stocking up on snacks and juice.Proximity: Across from Katy Mills (Outlet) Mall. We were able to literally walk across the parking lot (and a small street) to the mall. Besides the stores, it also had a food-court, merry-go-around, and a small play area for kids. We went there a couple times after dinner and stayed almost until when the mall was closed. The parking lot and the surround area are safe and well-lit. There were also a couple restaurants across the street from the hotel. In addition, there was a Super Wal-Mart nearby (about less than 10 minutes drive, non-highway) with a McDonald’s inside. I made a couple quick runs there for water bottles, food and household items, and found it to be convenient.Staff: Everyone that we met was friendly, from the front desk, to the housekeepers, to the kitchen/breakfast staff. They went out of their way to make sure our stay was pleasant. I had issue with the ethernet cable and wi-fi connection in my room the first day I checked in and contacted the front desk. The gentleman on duty immediately dispatched a technician to locate a new replacement ethernet cable. I was also given a phone number to contact the hotel’s technical support. They assisted me in trouble-shooting the problem and stayed on the phone until I could confirm that I received good wi-fi signals on all of my devices. The breakfast was good with decent varieties, and the hot food menu changed throughout the week that we stayed. During our visit, we also, unfortunately, had a medical emergency situation with a family member. Not only did they help me call 911 and make sure the ambulance knew the exact location, but later on, when the staff member saw me in the hallway, she checked up on me and asked if things were alright (which, thankfully, they were).Overall, we had a great experience staying at Residence Inn Houston Katy Mills, and I highly recommend this hotel if you visit Katy, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Accommodation: The rooms are spacious and clean. The air-conditioning worked great, quiet and even throughout the 2 rooms. We loved the kitchen, with full-size refrigerator, microwave oven and electric stove. The dining set, silverware and cooking/kitchen utensils also came in handy. We have toddlers so the setup was perfect for us to make some home-made meals for them, as well as stocking up on snacks and juice.
+Proximity: Across from Katy Mills (Outlet) Mall. We were able to literally walk across the parking lot (and a small street) to the mall. Besides the stores, it also had a food-court, merry-go-around, and a small play area for kids. We went there a couple times after dinner and stayed almost until when the mall was closed. The parking lot and the surround area are safe and well-lit. There were also a couple restaurants across the street from the hotel. In addition, there was a Super Wal-Mart nearby (about less than 10 minutes drive, non-highway) with a McDonald’s inside. I made a couple quick runs there for water bottles, food and household items, and found it to be convenient.
+Staff: Everyone that we met was friendly, from the front desk, to the housekeepers, to the kitchen/breakfast staff. They went out of their way to make sure our stay was pleasant. I had issue with the ethernet cable and wi-fi connection in my room the first day I checked in and contacted the front...Accommodation: The rooms are spacious and clean. The air-conditioning worked great, quiet and even throughout the 2 rooms. We loved the kitchen, with full-size refrigerator, microwave oven and electric stove. The dining set, silverware and cooking/kitchen utensils also came in handy. We have toddlers so the setup was perfect for us to make some home-made meals for them, as well as stocking up on snacks and juice.Proximity: Across from Katy Mills (Outlet) Mall. We were able to literally walk across the parking lot (and a small street) to the mall. Besides the stores, it also had a food-court, merry-go-around, and a small play area for kids. We went there a couple times after dinner and stayed almost until when the mall was closed. The parking lot and the surround area are safe and well-lit. There were also a couple restaurants across the street from the hotel. In addition, there was a Super Wal-Mart nearby (about less than 10 minutes drive, non-highway) with a McDonald’s inside. I made a couple quick runs there for water bottles, food and household items, and found it to be convenient.Staff: Everyone that we met was friendly, from the front desk, to the housekeepers, to the kitchen/breakfast staff. They went out of their way to make sure our stay was pleasant. I had issue with the ethernet cable and wi-fi connection in my room the first day I checked in and contacted the front desk. The gentleman on duty immediately dispatched a technician to locate a new replacement ethernet cable. I was also given a phone number to contact the hotel’s technical support. They assisted me in trouble-shooting the problem and stayed on the phone until I could confirm that I received good wi-fi signals on all of my devices. The breakfast was good with decent varieties, and the hot food menu changed throughout the week that we stayed. During our visit, we also, unfortunately, had a medical emergency situation with a family member. Not only did they help me call 911 and make sure the ambulance knew the exact location, but later on, when the staff member saw me in the hallway, she checked up on me and asked if things were alright (which, thankfully, they were).Overall, we had a great experience staying at Residence Inn Houston Katy Mills, and I highly recommend this hotel if you visit Katy, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r284397523-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>284397523</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Spacious</t>
+  </si>
+  <si>
+    <t>Stayed on business for one night, the room was spacious and comfortable bed. Hotel staff was helpful and courteous. A lot of people hanging in the outdoor space nice gathering area by the pool. Breakfast was well stocked.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r283641697-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>283641697</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>5 Star Service!!!</t>
+  </si>
+  <si>
+    <t>After a three night stay at this wonderful abode of a hotel, I find myself repeating the same word over and over again-- wow!!! Not only was I amazed by the hotel's surroundings as the heart of the night life of Atlantic Avenue and the sandy shore of the beach, but the inner workings of the hotel left me speechless. Every time I entered the hotel, I was greeted very warmly by a beautiful young lady named Valentyna. She consistently offered me assistance, whether it was for lunch options, or for fresh towels. A wonderfully kind and caring young man named Joseph checked me into my room; I explained to him that I needed a room close to the elevator, yet was on a high floor so that I could still maintain a nice view of my surroundings. He quickly responded with a resounding "sure" and helped me with my needs. Following this, for the remainder of my stay, he consistently greeted me with warm conversation, jokes, and smiles. When I misplaced my keys at the wonderful on sight pool, a young lady named Kate was nice enough to make us brand new keys with a positive attitude. Breakfast was served fresh each morning and my family and I enjoyed our warm waffles in a dining area that matched the comfort of our home. I would highly recommend this hotel to anyone looking for a hotel in the area. The...After a three night stay at this wonderful abode of a hotel, I find myself repeating the same word over and over again-- wow!!! Not only was I amazed by the hotel's surroundings as the heart of the night life of Atlantic Avenue and the sandy shore of the beach, but the inner workings of the hotel left me speechless. Every time I entered the hotel, I was greeted very warmly by a beautiful young lady named Valentyna. She consistently offered me assistance, whether it was for lunch options, or for fresh towels. A wonderfully kind and caring young man named Joseph checked me into my room; I explained to him that I needed a room close to the elevator, yet was on a high floor so that I could still maintain a nice view of my surroundings. He quickly responded with a resounding "sure" and helped me with my needs. Following this, for the remainder of my stay, he consistently greeted me with warm conversation, jokes, and smiles. When I misplaced my keys at the wonderful on sight pool, a young lady named Kate was nice enough to make us brand new keys with a positive attitude. Breakfast was served fresh each morning and my family and I enjoyed our warm waffles in a dining area that matched the comfort of our home. I would highly recommend this hotel to anyone looking for a hotel in the area. The front desk agents are friendly, the room was made clean each day, the management was superb, and the food was tasty. 5 STARS!!!!-- CarolMoreShow less</t>
+  </si>
+  <si>
+    <t>After a three night stay at this wonderful abode of a hotel, I find myself repeating the same word over and over again-- wow!!! Not only was I amazed by the hotel's surroundings as the heart of the night life of Atlantic Avenue and the sandy shore of the beach, but the inner workings of the hotel left me speechless. Every time I entered the hotel, I was greeted very warmly by a beautiful young lady named Valentyna. She consistently offered me assistance, whether it was for lunch options, or for fresh towels. A wonderfully kind and caring young man named Joseph checked me into my room; I explained to him that I needed a room close to the elevator, yet was on a high floor so that I could still maintain a nice view of my surroundings. He quickly responded with a resounding "sure" and helped me with my needs. Following this, for the remainder of my stay, he consistently greeted me with warm conversation, jokes, and smiles. When I misplaced my keys at the wonderful on sight pool, a young lady named Kate was nice enough to make us brand new keys with a positive attitude. Breakfast was served fresh each morning and my family and I enjoyed our warm waffles in a dining area that matched the comfort of our home. I would highly recommend this hotel to anyone looking for a hotel in the area. The...After a three night stay at this wonderful abode of a hotel, I find myself repeating the same word over and over again-- wow!!! Not only was I amazed by the hotel's surroundings as the heart of the night life of Atlantic Avenue and the sandy shore of the beach, but the inner workings of the hotel left me speechless. Every time I entered the hotel, I was greeted very warmly by a beautiful young lady named Valentyna. She consistently offered me assistance, whether it was for lunch options, or for fresh towels. A wonderfully kind and caring young man named Joseph checked me into my room; I explained to him that I needed a room close to the elevator, yet was on a high floor so that I could still maintain a nice view of my surroundings. He quickly responded with a resounding "sure" and helped me with my needs. Following this, for the remainder of my stay, he consistently greeted me with warm conversation, jokes, and smiles. When I misplaced my keys at the wonderful on sight pool, a young lady named Kate was nice enough to make us brand new keys with a positive attitude. Breakfast was served fresh each morning and my family and I enjoyed our warm waffles in a dining area that matched the comfort of our home. I would highly recommend this hotel to anyone looking for a hotel in the area. The front desk agents are friendly, the room was made clean each day, the management was superb, and the food was tasty. 5 STARS!!!!-- CarolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r279147413-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>279147413</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>First time visitors with a small family group we were traveling with. Upon arrival, the front desk staff greeted us promptly. We were checking in as part of a group, and we had no issues getting our room. Nice main lobby with seating area. Small pool outside. Serves hot breakfast in the mornings downstairs lobby. Our room was a Studio Suite with a king bed. Small kitchenette with two- burner stovetop (no oven) microwave, refrigerator, regular coffee maker, toaster. basic Dishes, glasses and cookware etc supplied in room. Small table for eating meals. Our room was at the end of long hallway near exterior entry/ stairs, and it was quiet! The room was immaculate. Bathroom very clean. This was a nice hotel that I would recommend and stay at again. Pros: Nice rooms, nice bright lobby, efficient staff. Hot breakfast. Exterior pool with fire pit seating area. Restaurants, pharmacies, Katy Mills Mall nearby. Pet friendly from what we could tell. Cons: if you are at end of hallways, it can be a long walk to elevator, unless you don't mind. Other than that, you probably won't want to leave! : )MoreShow less</t>
+  </si>
+  <si>
+    <t>First time visitors with a small family group we were traveling with. Upon arrival, the front desk staff greeted us promptly. We were checking in as part of a group, and we had no issues getting our room. Nice main lobby with seating area. Small pool outside. Serves hot breakfast in the mornings downstairs lobby. Our room was a Studio Suite with a king bed. Small kitchenette with two- burner stovetop (no oven) microwave, refrigerator, regular coffee maker, toaster. basic Dishes, glasses and cookware etc supplied in room. Small table for eating meals. Our room was at the end of long hallway near exterior entry/ stairs, and it was quiet! The room was immaculate. Bathroom very clean. This was a nice hotel that I would recommend and stay at again. Pros: Nice rooms, nice bright lobby, efficient staff. Hot breakfast. Exterior pool with fire pit seating area. Restaurants, pharmacies, Katy Mills Mall nearby. Pet friendly from what we could tell. Cons: if you are at end of hallways, it can be a long walk to elevator, unless you don't mind. Other than that, you probably won't want to leave! : )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r263650424-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>263650424</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay, convenient location</t>
+  </si>
+  <si>
+    <t>Stayed during the Southland Conference Basketball Tournament at the Merrill Center. This hotel is in a perfect location. Close to a Walgreens, HEB, and the Katy Mills Mall. You can walk across the street to Fuddruckers.The service was friendly. The room was spotless. We stayed in a 2 bedroom suite. My parents had never stayed in a Residence Inn before. They were very impressed and now understand why Residence Inn is always my first choice. This was my first visit to this Residence Inn and I'll definitely be back next year.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r261875919-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>261875919</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Great locations with shops and resturants available.</t>
+  </si>
+  <si>
+    <t>Great locations with an outstanding staff. Ashley scheduled my reservation and received us at check in. Staff did everything and were friendly and courteous. Drug store, grocery and shopping close by. West of downtown Houston, near Brookhire, Texas.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r260745396-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>260745396</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>A bit pricey but a nice place to stay. I would stay there again.</t>
+  </si>
+  <si>
+    <t>I had to stay in Katy Texas for 4 days to attend training and meetings. This hotel is very nice and the rooms are nice and spacious. They are like little apartments, very clean and well decorated. The staff is excellent, they are very friendly and helpful and knowledgeable about the area. I would definately stay there again. It is right next to the Katy Mills Mall and the Bass Pro Shop, you just have to walk across the parking lot.. Lots of nice restaurants around too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r248992885-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>248992885</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Gymnastics Meet</t>
+  </si>
+  <si>
+    <t>Great hotel. Very modern, clean. Friendly front desk staff. Great location for shopping and restaurants and Merrill sports arena where the gymnastics meet was held. Hot breakfast was extensive and attendant kept everything refreshed. Business center had great internet service, also wifi in room was a breeze to connect and use.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r245851818-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>245851818</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>SCAM!</t>
+  </si>
+  <si>
+    <t>NEVER, EVER STAY AT THIS HOTEL IF YOU EXPECT GOOD CUSTOMER SERVICE!!! Especially, if you are an associate or family of associate. I checked in and was told employment would be verified, yet they failed to do so and charged my card almost $100.00 more then my confirmation. My sister, the Marriott employee of more than 16 years, called customer care and STILL my charges have not been reversed. They charged my card 4 hours after I checked in (did not verify as I was told) and NOW I am told when asked manager to be contacted, ,that I would have to wait until Monday, 5 days after charges.  They want to upset MY Christmas day, but do not want to be "bothered" on their time off. I will be filing a dispute with the credit card company and file a written complaint to Marriott. My husband worked for Marriott more than 12 years until retiring in 2011. We have stayed at hundreds of Marriott hotels around the country and have NEVER been treated so poorly. Jasmine, you should be able to do your job and make sure you know facts. I hope the manager had a Merry Christmas!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Soyoung A, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>NEVER, EVER STAY AT THIS HOTEL IF YOU EXPECT GOOD CUSTOMER SERVICE!!! Especially, if you are an associate or family of associate. I checked in and was told employment would be verified, yet they failed to do so and charged my card almost $100.00 more then my confirmation. My sister, the Marriott employee of more than 16 years, called customer care and STILL my charges have not been reversed. They charged my card 4 hours after I checked in (did not verify as I was told) and NOW I am told when asked manager to be contacted, ,that I would have to wait until Monday, 5 days after charges.  They want to upset MY Christmas day, but do not want to be "bothered" on their time off. I will be filing a dispute with the credit card company and file a written complaint to Marriott. My husband worked for Marriott more than 12 years until retiring in 2011. We have stayed at hundreds of Marriott hotels around the country and have NEVER been treated so poorly. Jasmine, you should be able to do your job and make sure you know facts. I hope the manager had a Merry Christmas!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r245083861-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>245083861</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>Clean, friendly and spacious</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights recently and found this Marriott property to be a very nice experience, considering it was across from shopping center. That made my wife quite happy, but I could do without. The rooms were spacious and well kept, the staff friendly and helpful. An unexpected surprise was the complimentary, rather complete and tasty breakfast offered downstairs until 9:30am. Housekeeping staff is on the job quite early, so hang your sign until ready...Would definitely stay here again, just bring extra luggage for shopping!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r241187827-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>241187827</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>The hotel rooms are very spacious, and well designed.  I loved the room.  I've lived in an efficiency apartment that was smaller than this room. The staff was great except I had a little trouble finding someone at the front desk when I checked in.  I spent 1 night there the week before Thanksgiving.  They had a guy frying turkeys outside for their Thanksgiving feast the night I was there.  This is what they served to the guests for dinner that evening-- turkey with the trimmings.  I couldn't believe they would go to so much trouble for their guests.  What a great place!  In the morning, the kitchen staff was nice and kept everything well stocked. I'd definitely stay there again.  I also liked that their check out time was noon rather than 11 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The hotel rooms are very spacious, and well designed.  I loved the room.  I've lived in an efficiency apartment that was smaller than this room. The staff was great except I had a little trouble finding someone at the front desk when I checked in.  I spent 1 night there the week before Thanksgiving.  They had a guy frying turkeys outside for their Thanksgiving feast the night I was there.  This is what they served to the guests for dinner that evening-- turkey with the trimmings.  I couldn't believe they would go to so much trouble for their guests.  What a great place!  In the morning, the kitchen staff was nice and kept everything well stocked. I'd definitely stay there again.  I also liked that their check out time was noon rather than 11 am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r240625778-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>240625778</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Relaxing, comfortable stay</t>
+  </si>
+  <si>
+    <t>Stayed for three days at this hotel. The beds were so comfortable. Really liked having the separate bedroom. Having a kitchen was nice too. This was hotel #5 on a three week western road trip and by far the best! The breakfast was good with lots of choices and real eggs!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r238425166-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>238425166</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>The rooms are so good in general. The problem for my is the noise. I was sleeping in front of AA machine, terrible. The breakfast is terrible is ever the same. The hotel is in front of the mall and could be an option if you would like to spend some time there. MoreShow less</t>
+  </si>
+  <si>
+    <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2014</t>
+  </si>
+  <si>
+    <t>The rooms are so good in general. The problem for my is the noise. I was sleeping in front of AA machine, terrible. The breakfast is terrible is ever the same. The hotel is in front of the mall and could be an option if you would like to spend some time there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r223964273-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>223964273</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Can't wait to return!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect from check in to check out!  Beautiful hotel room, more like an apartment. Love this hotel and I can't wait to return. Comfy bed,  fully equipped kitchen, nice lighting and furnishings. Clean and fresh. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r220856787-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>220856787</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Stylish new property, wonderful rooms</t>
+  </si>
+  <si>
+    <t>The lobby and eating areas are stylishly modern and beautifully done. Better yet, the rooms are outstanding--roomy, comfortable and even a bit luxurious. The only downsides to the location are the slow elevators and the very, very long hallways leading to rooms. However, front desk personnel have always been top notch and it's nice to have a service where you can buy food and snacks without going out. The outdoor patio and pool area almost has a resort like feel in terms of design (even though one side fronts the parking lot. Parking here is plentiful.The only downside we've experienced on multiple visits is the morning breakfast. The dining area is comfortable and food selection/quality is certainly a cut above less expensive hotels, but the lack of staffing can mean longer waits for fresh food to arrive, as well as refills for coffee. We've even had to wander into the back kitchen area in order to plead for napkins, utensils, cups, etc. Still, this is our favorite hotel in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>The lobby and eating areas are stylishly modern and beautifully done. Better yet, the rooms are outstanding--roomy, comfortable and even a bit luxurious. The only downsides to the location are the slow elevators and the very, very long hallways leading to rooms. However, front desk personnel have always been top notch and it's nice to have a service where you can buy food and snacks without going out. The outdoor patio and pool area almost has a resort like feel in terms of design (even though one side fronts the parking lot. Parking here is plentiful.The only downside we've experienced on multiple visits is the morning breakfast. The dining area is comfortable and food selection/quality is certainly a cut above less expensive hotels, but the lack of staffing can mean longer waits for fresh food to arrive, as well as refills for coffee. We've even had to wander into the back kitchen area in order to plead for napkins, utensils, cups, etc. Still, this is our favorite hotel in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r215961185-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>215961185</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations</t>
+  </si>
+  <si>
+    <t>The rooms were large spacious and clean and the breakfast was excellent! Right next to great shopping too! You need to rent a car if you are going to do things in Houston but it is not to long a drive to anywhere (unless you get stuck in rush hour)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r207644540-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>207644540</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Quiet, Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights and thought for sure that sometime during the visit we would have something that would take the rating down from perfect. We stayed in a king studio on the first floor and it was clean, quiet and decorated nicely. The staff was pleasant and breakfast was wonderful all three mornings. We really liked the eggs with tomatoes and spinach.We will stay here again the next time we are in Katy visiting family.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r201865772-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>201865772</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Another Great Residence Inn Property</t>
+  </si>
+  <si>
+    <t>We stayed last night and trust to form it was a very nice stay.  Excellent bed, excellent breakfast, and even though the property was full it was really quiet.  The eggs were fantastic so whomever is doing the cookin needs a raise.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r201708080-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>201708080</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Great spot for business travel</t>
+  </si>
+  <si>
+    <t>Updated Residence Inn with great proximity to shopping, freeway etc. The layout is much improved over the old style and the finishes are very nice (granite, stainless steel in kitchen). Good workout roomGood breakfast set up Fast wifiComfortable bedHelpful and friendly staffMy only complaint was the crappy people that were staying above me that chose 1am to start playing tag or something.. I called the front desk and they handled it quickly, although I did get several loud stomps afterwards as retaliation. haha ;-) Will definitely stay here again when on business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r188013764-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>188013764</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great location, walking distance to the katy mills mall and direct access I10, great breakfast, quiet hotel, 2 bedroom suite was very spacious and clean, furnishings very up to date, would definitely stay here again   </t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r187542527-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>187542527</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel situated next to Katy Mills. The complementary breakfast was good and the wine in the evening is a nice time to relax in the lobby. The bed was comfortable and the room was clean. I would easily stay here again.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r184316459-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>184316459</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Excellent excellent excellent</t>
+  </si>
+  <si>
+    <t>My teenage son and I travel around Texas at least one weekend a month for tennis tournaments and have done so for the past 2 years.   Of all the places we have stayed we both agreed that for the money i am willing to spend for our weekend rooms, this was the cleanest, homiest, friendliest, most luxurious for the price, with the best hot breakfast (scrambled eggs not from powder, sausage, bacon, potatoes, pancakes not from a machine, waffles), of anywhere we have stayed during the last 2 years.  Had  full, granite countertop kitchen in the room with dishwasher, full-size fridge with ice maker, microwave, brand new fitness equipment in gym. On site laundry.  ---We had a king room with pull out sofa sleeper and even the sleeper sofa mattress was great. Could not  have been happier.  Very friend helpful staff.  Fuddruckers and Katy Mills mall and movie theater across the street.  Near to many other restaurants.  Looking forward to next year's tourney there!  :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>My teenage son and I travel around Texas at least one weekend a month for tennis tournaments and have done so for the past 2 years.   Of all the places we have stayed we both agreed that for the money i am willing to spend for our weekend rooms, this was the cleanest, homiest, friendliest, most luxurious for the price, with the best hot breakfast (scrambled eggs not from powder, sausage, bacon, potatoes, pancakes not from a machine, waffles), of anywhere we have stayed during the last 2 years.  Had  full, granite countertop kitchen in the room with dishwasher, full-size fridge with ice maker, microwave, brand new fitness equipment in gym. On site laundry.  ---We had a king room with pull out sofa sleeper and even the sleeper sofa mattress was great. Could not  have been happier.  Very friend helpful staff.  Fuddruckers and Katy Mills mall and movie theater across the street.  Near to many other restaurants.  Looking forward to next year's tourney there!  :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r175817086-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>175817086</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Best place to stay in Katy, Texas</t>
+  </si>
+  <si>
+    <t>We stayed in a beautiful 2 bedroom hotel room with a nice pool. Located right next to the Katy Mall. Offers free breakfast and finger food each evening with beer and wine. Perfect place to stay with teen age kids,</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r175748140-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>175748140</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>My family expends summer vacation in Houston and we stay in this hotel. The service was excellent. The best service we have received in this hotel chain. The location is perfect in front of the Katy mills mall and the area is very comfortable for long stays. We have stayed there in spring brake vacations, and in Christmas and We always have received very good service and the hotel installations area well kept and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r175693389-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>175693389</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We were on a mini BBQ tour and then over to La. for a family visit. We were very excited to find the hotel directly across the street from the Katy Mills outlet mall. Check in was a breeze, the room was very nice with a view of the pool.  We really like the setup of these hotel rooms.  Nice kitchen if you want to cook with full size fridge.  Table and separate desk area, couch and chairs with a king size bed. Love that the sink and mirror are separate from toilet and bath area. We left too early to enjoy the breakfast.  The bed was very comfortable and the room very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We were on a mini BBQ tour and then over to La. for a family visit. We were very excited to find the hotel directly across the street from the Katy Mills outlet mall. Check in was a breeze, the room was very nice with a view of the pool.  We really like the setup of these hotel rooms.  Nice kitchen if you want to cook with full size fridge.  Table and separate desk area, couch and chairs with a king size bed. Love that the sink and mirror are separate from toilet and bath area. We left too early to enjoy the breakfast.  The bed was very comfortable and the room very clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r167248347-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>167248347</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>A little pricey, but a good option.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several time this year.  It's a little pricey, but probably the best option in the area.  I really like having the bedrooms separated from the living space.  The "personal grocery shopper" service was very helpful.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r165753447-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>165753447</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>A good option</t>
+  </si>
+  <si>
+    <t>We are staying at this hotel for an extended period during a move.  It has turned out to be a good option. We have a "corner king" room which sits at the end of a hall and is very quiet.  The location on the Katy Mills Mall property is convenient and quiet since there are no busy streets near the hotel. The staff have been helpful. The only downside has been that the living room furniture is not very comfortable. We are glad that we chose this location.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r159701588-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>159701588</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>I stayed there for a week with my husband as we were visiting friends who live in Katy. Location was great close to our friends, Katy mills mall and not too far from downtown 30min . The room was fantastic with great storage space, plus side is the spacious and private living room as my husband wakes up really early so my room had a separate door to seperate the room from the living space. Breakfast was good and the price was very reasonable . Wifi connection was free as well. Sorry it took me so long to review the hotel ,I would definitely stay there again if I ever visit Katy again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I stayed there for a week with my husband as we were visiting friends who live in Katy. Location was great close to our friends, Katy mills mall and not too far from downtown 30min . The room was fantastic with great storage space, plus side is the spacious and private living room as my husband wakes up really early so my room had a separate door to seperate the room from the living space. Breakfast was good and the price was very reasonable . Wifi connection was free as well. Sorry it took me so long to review the hotel ,I would definitely stay there again if I ever visit Katy again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r154571515-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>154571515</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Worth Searching For</t>
+  </si>
+  <si>
+    <t>It's a little hard to find if your not familiar with the area. It's actually in the parking lot of the mall. This is a new hotel. Very nice. Clean. Realy nice size suites. Food and shopping is nearby. I will stay here again, if ever in Katy .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r153137636-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>153137636</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Business, Dinning &amp; Shopping combo</t>
+  </si>
+  <si>
+    <t>Awesome location for business, great dinning within walking distance and extensive shopping at Katy Mills. The room is roomy and is equipped with a full kitchen. Very clean and well presented. The breakfast has daily (different) hot items. Great value for your money. If you are taking training with PetroSkills (next door facility) this is by far the best location, bring your wife along she will enjoy the shopping nearby.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r146573563-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>146573563</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Residence Inn always meets expectations</t>
+  </si>
+  <si>
+    <t>Lovely near new Residence Inn with nice sized suites. Right by Katy Mills Mall so lots of shopping, good HEB closeby. Nice outdoor pool. Be warned close to the very busy freeway so if you are not used to traffic noise ask for a quiet room.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r141481995-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>141481995</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>Great for long term family stay between houses.</t>
+  </si>
+  <si>
+    <t>This was a great solution for us when we were waiting for our new house.  It lives like a condo--with a very well-appointed kitchen, and well laid-out floorplan.  We have 2 small children, and they loved the pool and putting green.  I loved that they serve breakfast (7 days) and dinner (cafeteria style) Monday through Thursday, included in price of the room.  We were there for 2 weeks--it took a while to get accustomed to cooking again! Very clean, filtered water running throughout.  Another perk for us--we were there just before school started--there were lots of families waiting for their new houses, so we made some friends that will be at our new school.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This was a great solution for us when we were waiting for our new house.  It lives like a condo--with a very well-appointed kitchen, and well laid-out floorplan.  We have 2 small children, and they loved the pool and putting green.  I loved that they serve breakfast (7 days) and dinner (cafeteria style) Monday through Thursday, included in price of the room.  We were there for 2 weeks--it took a while to get accustomed to cooking again! Very clean, filtered water running throughout.  Another perk for us--we were there just before school started--there were lots of families waiting for their new houses, so we made some friends that will be at our new school.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r136110144-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>136110144</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Safe, Clean, and Well-Appointed Hotel that accepts pets</t>
+  </si>
+  <si>
+    <t>We recently stayed here for one night en route to Louisiana.  The hotel is in a very safe, clean area around Houston and is fairly easy to assess from the highway.  There are sit-down restaurants (Rain Forest Cafe, Cicis, etc), Starbucks, gas stations, Katy Mills Mall, and more all within blocks.  Breakfast was good, but it was very crowded, my family didn't have a place to sit.  It seemed as though there was a group all together of about 20-30 folks that knew each other and about 1/3 were in their pjs (most were kids, but there were some teens in pjs eating there in the lobby/breakfast area).  It was probably just a anomaly as I don't usually see this many at one time in pjs at these extended-stay hotels.  If in the Katy area again, we'd definitely consider staying here, but more likely if we were en route with our dog again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We recently stayed here for one night en route to Louisiana.  The hotel is in a very safe, clean area around Houston and is fairly easy to assess from the highway.  There are sit-down restaurants (Rain Forest Cafe, Cicis, etc), Starbucks, gas stations, Katy Mills Mall, and more all within blocks.  Breakfast was good, but it was very crowded, my family didn't have a place to sit.  It seemed as though there was a group all together of about 20-30 folks that knew each other and about 1/3 were in their pjs (most were kids, but there were some teens in pjs eating there in the lobby/breakfast area).  It was probably just a anomaly as I don't usually see this many at one time in pjs at these extended-stay hotels.  If in the Katy area again, we'd definitely consider staying here, but more likely if we were en route with our dog again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r135741173-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>135741173</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Best Hotel in Katy</t>
+  </si>
+  <si>
+    <t>Great Hotel in Katy, if you are shoppin or comming for a training to PetroSkills, this is the place. Rooms are great, with a king size bed, it also has a comfortable desk to work, a table for 2 people, a 3 person sofa and a  big coach to rest.It also holds a kitchen, where you can cook, or simply prepare yourself a sandwich! a Fridge and a micro wave.Everyday there's a brunch on the managers,  there's BBQ place where you can cook yourself, swimming pool, basketball court.Not to say about the location, infront of katy mills outlet mall and Bass Pro Shops!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r125699155-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>125699155</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Fantasic Hotel</t>
+  </si>
+  <si>
+    <t>I cannot praise this hotel highly enough incredible on service friendliness cleanliness!
+I work around the world living in hotels from the Top hotels  like the Ritz Carleton in Kuala Lumpur down to a holiday Inn – But - this hotel Residence Inn by Marriott Katy is outstanding 
+The Front staff - so friendly and helpful
+Quote From their brochure 
+´Our suites feature fully equipped kitchens, upgraded cabinets with frosted glass doors, granite counter tops, and separate working desk, dining &amp; living area. We offer complimentary hot breakfast buffet daily &amp; evening Social Hour (Mon.-Thurs.). We provide free Wi-Fi internet access, a sport court/putting green, outdoor pool/spa, fire pit with outdoor seating area, &amp; state-of-the-art fitness centre. Our Business Centre and Library with sitting pods are the perfect places for productivity, creativity, relaxation and fun!’
+Everything is exceptional – even free printing – The social hour is Wine Beer and Nibbles included in your price.
+The breakfast has to go plates and cups! 
+Swimming Pool and an outdoor BBQ that you can use has a great seating area 
+Guest Laundry with dryers – so you don’t have a large Laundry bill charges $2 for a wash then $2 for the dryer 
+The Hotel will even do your grocery shopping and put it in your fridge for you return you just leave your shopping list with the Front Desk 
+Free shuttle radius 5 miles also included 
+It is walking distance to...I cannot praise this hotel highly enough incredible on service friendliness cleanliness!I work around the world living in hotels from the Top hotels  like the Ritz Carleton in Kuala Lumpur down to a holiday Inn – But - this hotel Residence Inn by Marriott Katy is outstanding The Front staff - so friendly and helpfulQuote From their brochure ´Our suites feature fully equipped kitchens, upgraded cabinets with frosted glass doors, granite counter tops, and separate working desk, dining &amp; living area. We offer complimentary hot breakfast buffet daily &amp; evening Social Hour (Mon.-Thurs.). We provide free Wi-Fi internet access, a sport court/putting green, outdoor pool/spa, fire pit with outdoor seating area, &amp; state-of-the-art fitness centre. Our Business Centre and Library with sitting pods are the perfect places for productivity, creativity, relaxation and fun!’Everything is exceptional – even free printing – The social hour is Wine Beer and Nibbles included in your price.The breakfast has to go plates and cups! Swimming Pool and an outdoor BBQ that you can use has a great seating area Guest Laundry with dryers – so you don’t have a large Laundry bill charges $2 for a wash then $2 for the dryer The Hotel will even do your grocery shopping and put it in your fridge for you return you just leave your shopping list with the Front Desk Free shuttle radius 5 miles also included It is walking distance to Katy Mills Shopping Outlet Mall and Wallmart The best Mexican - directly across the road is Los Cucos  plus TGI Fridays and Fudruckers I shall always stay at this hotel when I am in Katy I adore it – A fantastic Business Hotel plus they are great with Children 10 Stars **************************************************************MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I cannot praise this hotel highly enough incredible on service friendliness cleanliness!
+I work around the world living in hotels from the Top hotels  like the Ritz Carleton in Kuala Lumpur down to a holiday Inn – But - this hotel Residence Inn by Marriott Katy is outstanding 
+The Front staff - so friendly and helpful
+Quote From their brochure 
+´Our suites feature fully equipped kitchens, upgraded cabinets with frosted glass doors, granite counter tops, and separate working desk, dining &amp; living area. We offer complimentary hot breakfast buffet daily &amp; evening Social Hour (Mon.-Thurs.). We provide free Wi-Fi internet access, a sport court/putting green, outdoor pool/spa, fire pit with outdoor seating area, &amp; state-of-the-art fitness centre. Our Business Centre and Library with sitting pods are the perfect places for productivity, creativity, relaxation and fun!’
+Everything is exceptional – even free printing – The social hour is Wine Beer and Nibbles included in your price.
+The breakfast has to go plates and cups! 
+Swimming Pool and an outdoor BBQ that you can use has a great seating area 
+Guest Laundry with dryers – so you don’t have a large Laundry bill charges $2 for a wash then $2 for the dryer 
+The Hotel will even do your grocery shopping and put it in your fridge for you return you just leave your shopping list with the Front Desk 
+Free shuttle radius 5 miles also included 
+It is walking distance to...I cannot praise this hotel highly enough incredible on service friendliness cleanliness!I work around the world living in hotels from the Top hotels  like the Ritz Carleton in Kuala Lumpur down to a holiday Inn – But - this hotel Residence Inn by Marriott Katy is outstanding The Front staff - so friendly and helpfulQuote From their brochure ´Our suites feature fully equipped kitchens, upgraded cabinets with frosted glass doors, granite counter tops, and separate working desk, dining &amp; living area. We offer complimentary hot breakfast buffet daily &amp; evening Social Hour (Mon.-Thurs.). We provide free Wi-Fi internet access, a sport court/putting green, outdoor pool/spa, fire pit with outdoor seating area, &amp; state-of-the-art fitness centre. Our Business Centre and Library with sitting pods are the perfect places for productivity, creativity, relaxation and fun!’Everything is exceptional – even free printing – The social hour is Wine Beer and Nibbles included in your price.The breakfast has to go plates and cups! Swimming Pool and an outdoor BBQ that you can use has a great seating area Guest Laundry with dryers – so you don’t have a large Laundry bill charges $2 for a wash then $2 for the dryer The Hotel will even do your grocery shopping and put it in your fridge for you return you just leave your shopping list with the Front Desk Free shuttle radius 5 miles also included It is walking distance to Katy Mills Shopping Outlet Mall and Wallmart The best Mexican - directly across the road is Los Cucos  plus TGI Fridays and Fudruckers I shall always stay at this hotel when I am in Katy I adore it – A fantastic Business Hotel plus they are great with Children 10 Stars **************************************************************More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r125510573-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>125510573</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>Great quiet sleep along off I-10</t>
+  </si>
+  <si>
+    <t>This is a great almost new hotel. We stayed there only one night while traveling west to CA on I-10. Our room was very quiet, with comfortable beds, two bathrooms and nice living/dining room with a full kitchen. There was plenty of room for a few hours we spent with our local friends. The front desk staff was very pleasant and accommodated our request for a change of room farther away from a highway.
+Nonetheless, I did not like that in the morning when packing our car I noticed a big red pickup truck drove up to the front door, two people came out but left a car running. About 15 minutes later when we went for breakfast this truck was still blocking a front door, and a couple was eating breakfast and talking on a phone. About 10 minutes later when they finished their breakfast they got up, said. “We’ll see you tomorrow morning” to the front desk clerk, got to their red huge pick up and left.
+Didn't have time to ask but I guess the breakfast at this Residence Inn is open to non-guests as well? If this is a case at least they should be asked to park a car in a parking lot and not block a front door and continue spew fumes for more than ½ hour. I watched an elderly couple trying to get around this pickup truck and fumes to their car....This is a great almost new hotel. We stayed there only one night while traveling west to CA on I-10. Our room was very quiet, with comfortable beds, two bathrooms and nice living/dining room with a full kitchen. There was plenty of room for a few hours we spent with our local friends. The front desk staff was very pleasant and accommodated our request for a change of room farther away from a highway.Nonetheless, I did not like that in the morning when packing our car I noticed a big red pickup truck drove up to the front door, two people came out but left a car running. About 15 minutes later when we went for breakfast this truck was still blocking a front door, and a couple was eating breakfast and talking on a phone. About 10 minutes later when they finished their breakfast they got up, said. “We’ll see you tomorrow morning” to the front desk clerk, got to their red huge pick up and left.Didn't have time to ask but I guess the breakfast at this Residence Inn is open to non-guests as well? If this is a case at least they should be asked to park a car in a parking lot and not block a front door and continue spew fumes for more than ½ hour. I watched an elderly couple trying to get around this pickup truck and fumes to their car. I hope a management of the Residence Inn will read my review and do something about a red pickup truck. I would like to give this wonderful hotel the highest rating but because of the red pickup truck I cannot.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>This is a great almost new hotel. We stayed there only one night while traveling west to CA on I-10. Our room was very quiet, with comfortable beds, two bathrooms and nice living/dining room with a full kitchen. There was plenty of room for a few hours we spent with our local friends. The front desk staff was very pleasant and accommodated our request for a change of room farther away from a highway.
+Nonetheless, I did not like that in the morning when packing our car I noticed a big red pickup truck drove up to the front door, two people came out but left a car running. About 15 minutes later when we went for breakfast this truck was still blocking a front door, and a couple was eating breakfast and talking on a phone. About 10 minutes later when they finished their breakfast they got up, said. “We’ll see you tomorrow morning” to the front desk clerk, got to their red huge pick up and left.
+Didn't have time to ask but I guess the breakfast at this Residence Inn is open to non-guests as well? If this is a case at least they should be asked to park a car in a parking lot and not block a front door and continue spew fumes for more than ½ hour. I watched an elderly couple trying to get around this pickup truck and fumes to their car....This is a great almost new hotel. We stayed there only one night while traveling west to CA on I-10. Our room was very quiet, with comfortable beds, two bathrooms and nice living/dining room with a full kitchen. There was plenty of room for a few hours we spent with our local friends. The front desk staff was very pleasant and accommodated our request for a change of room farther away from a highway.Nonetheless, I did not like that in the morning when packing our car I noticed a big red pickup truck drove up to the front door, two people came out but left a car running. About 15 minutes later when we went for breakfast this truck was still blocking a front door, and a couple was eating breakfast and talking on a phone. About 10 minutes later when they finished their breakfast they got up, said. “We’ll see you tomorrow morning” to the front desk clerk, got to their red huge pick up and left.Didn't have time to ask but I guess the breakfast at this Residence Inn is open to non-guests as well? If this is a case at least they should be asked to park a car in a parking lot and not block a front door and continue spew fumes for more than ½ hour. I watched an elderly couple trying to get around this pickup truck and fumes to their car. I hope a management of the Residence Inn will read my review and do something about a red pickup truck. I would like to give this wonderful hotel the highest rating but because of the red pickup truck I cannot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r122395883-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>122395883</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Top, in all aspects!</t>
+  </si>
+  <si>
+    <t>New, well maintained, clean, very good service, eaasy to find etc etcRooms extremely nice and still as new.Clean! Very good (marriott) beds... Sleeping like at home.Room was almost without any noise from the highway, even with the room we had with view on the highway!!Workout room very good equiped.Breakfast absolutely very good!Not the standard stuff - tasty and fresh as it seems.Absolutely a very positive experience.and max 5 minute walking to the Mall and Restaurants</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r121129352-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>121129352</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Stylish, customer-friendly and pet-friendly hotel</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel that would take our us and our 3 dogs and 2 birds for the duration of our temporary living in Houston. We were waiting for our house to be built, and had to find a place for all of our pets, since they cannot be boarded. After a long and fruitless search, we found Residence Inn, right across the street from Katy Mills Mall. The hotel and our room significantly exceeded our expectations. Comfortably and stylishly outfitted with the latest and greatest, our suite was a beautiful place, coupled with granite countertop kitchen and all appliances, a work area, a separate room with doors that we can close to keep the dogs separate from the birds, and plenty of light. The location was great and there was a large field behind the hotel, where we saw many other hotel residents walk their 4-legged pets. It was a quiet hotel, and we could use the housekeeping or just get our own sheets if we didn't want housekeeping. Free wifi, delicious hot breakfast and light dinner were available. We found a great place and would recommend it to anyone. The concierge was always extra friendly and pointed us to the area restaurants and taught us about Katy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel that would take our us and our 3 dogs and 2 birds for the duration of our temporary living in Houston. We were waiting for our house to be built, and had to find a place for all of our pets, since they cannot be boarded. After a long and fruitless search, we found Residence Inn, right across the street from Katy Mills Mall. The hotel and our room significantly exceeded our expectations. Comfortably and stylishly outfitted with the latest and greatest, our suite was a beautiful place, coupled with granite countertop kitchen and all appliances, a work area, a separate room with doors that we can close to keep the dogs separate from the birds, and plenty of light. The location was great and there was a large field behind the hotel, where we saw many other hotel residents walk their 4-legged pets. It was a quiet hotel, and we could use the housekeeping or just get our own sheets if we didn't want housekeeping. Free wifi, delicious hot breakfast and light dinner were available. We found a great place and would recommend it to anyone. The concierge was always extra friendly and pointed us to the area restaurants and taught us about Katy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r119042482-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>119042482</t>
+  </si>
+  <si>
+    <t>10/07/2011</t>
+  </si>
+  <si>
+    <t>Good overall stay, great value</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for almost a month from mid-August to mid-September 2011 when we we were relocating to the Katy area. At first, we were put in a room on the 3rd floor where the AC was not working properly, but the hotel staff was accomodating and put us in a new room on the 2nd floor which solved the problem. The gym is great, as is the pool. The morning breakfast and Monday-Thursday snacks which are family friendly was a great added value. Yoyo the manager is great, as are Tina and Alberto at front desk. I would recommend it to anyone needing an extended stay in the Katy area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for almost a month from mid-August to mid-September 2011 when we we were relocating to the Katy area. At first, we were put in a room on the 3rd floor where the AC was not working properly, but the hotel staff was accomodating and put us in a new room on the 2nd floor which solved the problem. The gym is great, as is the pool. The morning breakfast and Monday-Thursday snacks which are family friendly was a great added value. Yoyo the manager is great, as are Tina and Alberto at front desk. I would recommend it to anyone needing an extended stay in the Katy area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r117288481-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>117288481</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>Beautiful but too hot</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, brand new hotel.  But I stayed during the big heat wave (August 2011:  98--103 every day) and this hotel was unable to cool the rooms down below about 78 degrees.   For the next trip I switched to the Hilton Garden Inn, which recently installed new air conditioning which gets the rooms very cold.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r114581478-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>114581478</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>I stayed in a Studio King Suite on the top (4th) floor.  These suites have extremely nice furniture which is all well laid out.  It felt like a home away from home.   I liked that the suite had a small desk for doing my paperwork and it also had a seperate small dinette table for eating at.  Very nice bed and bedding.  I really felt comfortable in this room!!  The hotel is very quiet and is far enough away from the Interstate that you hear no traffic noise.  There was a heat wave on at the time but the room stayed as cool as I wanted it.  Very pleasant front desk and housecleaning staff.  You can buy groceries nearby (Walmart is a 5 minute drive away and there are other grocery stores in area).  There are several restaurants right across the steet from the hotel.  I had several dinners at the Mexican Restaurant called Los Cucos and the meals were outstanding (very quick, great portions, very tasty, and reasonably priced ie. $10 per entree).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I stayed in a Studio King Suite on the top (4th) floor.  These suites have extremely nice furniture which is all well laid out.  It felt like a home away from home.   I liked that the suite had a small desk for doing my paperwork and it also had a seperate small dinette table for eating at.  Very nice bed and bedding.  I really felt comfortable in this room!!  The hotel is very quiet and is far enough away from the Interstate that you hear no traffic noise.  There was a heat wave on at the time but the room stayed as cool as I wanted it.  Very pleasant front desk and housecleaning staff.  You can buy groceries nearby (Walmart is a 5 minute drive away and there are other grocery stores in area).  There are several restaurants right across the steet from the hotel.  I had several dinners at the Mexican Restaurant called Los Cucos and the meals were outstanding (very quick, great portions, very tasty, and reasonably priced ie. $10 per entree).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r113638920-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>113638920</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>This hotel is utterly fantastic</t>
+  </si>
+  <si>
+    <t>This hotel is located a short 2 minute walk from the PetraSkills Conference Center. The suites here have a full kitchen,refridgerator microwave, dishwasher, silverware, plates and glasses. The layout is expansive and well thoughtout. Maid service every day to make the bed. The outdoor pool was attractive and well maintained. I enjoyed sitting on the patio after sunset. The breeze was just great. This hotel made it the most relaxing stay for a professional 5 day class ever!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r108401728-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>108401728</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>A wonderful hotel with a great staff!</t>
+  </si>
+  <si>
+    <t>we were in town for a wedding and this hotel was great. Very clean , has a wonderful staff at every level, very nice breakfast. We had a studio room which was very nice, lots of lights, good mirrors, beautiful kitchen, well equipped. Absolutely no negatives. Great location right off I-10 with an outlet mall across the street and a HEB and Super Walmart nearby if you need them.  We just had a great stay!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1882,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1914,4434 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X24" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>153</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>209</v>
+      </c>
+      <c r="X26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>217</v>
+      </c>
+      <c r="X27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>255</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>266</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" t="s">
+        <v>291</v>
+      </c>
+      <c r="L39" t="s">
+        <v>292</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s">
+        <v>297</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>298</v>
+      </c>
+      <c r="X40" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" t="s">
+        <v>305</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>306</v>
+      </c>
+      <c r="O41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" t="s">
+        <v>310</v>
+      </c>
+      <c r="L42" t="s">
+        <v>311</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>312</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>315</v>
+      </c>
+      <c r="J43" t="s">
+        <v>316</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>312</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" t="s">
+        <v>329</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>330</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>332</v>
+      </c>
+      <c r="J46" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" t="s">
+        <v>335</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>337</v>
+      </c>
+      <c r="J47" t="s">
+        <v>338</v>
+      </c>
+      <c r="K47" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" t="s">
+        <v>340</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>341</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s">
+        <v>346</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>347</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>355</v>
+      </c>
+      <c r="J50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s">
+        <v>358</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>359</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s">
+        <v>367</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>368</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>371</v>
+      </c>
+      <c r="J53" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" t="s">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s">
+        <v>374</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>375</v>
+      </c>
+      <c r="O53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" t="s">
+        <v>379</v>
+      </c>
+      <c r="L54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>381</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>375</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>394</v>
+      </c>
+      <c r="J57" t="s">
+        <v>395</v>
+      </c>
+      <c r="K57" t="s">
+        <v>396</v>
+      </c>
+      <c r="L57" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>398</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>399</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>400</v>
+      </c>
+      <c r="J58" t="s">
+        <v>401</v>
+      </c>
+      <c r="K58" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s">
+        <v>403</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>406</v>
+      </c>
+      <c r="J59" t="s">
+        <v>407</v>
+      </c>
+      <c r="K59" t="s">
+        <v>408</v>
+      </c>
+      <c r="L59" t="s">
+        <v>409</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>410</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>413</v>
+      </c>
+      <c r="J60" t="s">
+        <v>414</v>
+      </c>
+      <c r="K60" t="s">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s">
+        <v>416</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>417</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>417</v>
+      </c>
+      <c r="O61" t="s">
+        <v>108</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>425</v>
+      </c>
+      <c r="J62" t="s">
+        <v>426</v>
+      </c>
+      <c r="K62" t="s">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s">
+        <v>428</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>432</v>
+      </c>
+      <c r="J63" t="s">
+        <v>433</v>
+      </c>
+      <c r="K63" t="s">
+        <v>434</v>
+      </c>
+      <c r="L63" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>436</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>439</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+      <c r="K64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L64" t="s">
+        <v>442</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>443</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>445</v>
+      </c>
+      <c r="J65" t="s">
+        <v>446</v>
+      </c>
+      <c r="K65" t="s">
+        <v>447</v>
+      </c>
+      <c r="L65" t="s">
+        <v>448</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>449</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" t="s">
+        <v>453</v>
+      </c>
+      <c r="K66" t="s">
+        <v>454</v>
+      </c>
+      <c r="L66" t="s">
+        <v>455</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>456</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>458</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>459</v>
+      </c>
+      <c r="J67" t="s">
+        <v>460</v>
+      </c>
+      <c r="K67" t="s">
+        <v>461</v>
+      </c>
+      <c r="L67" t="s">
+        <v>462</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>456</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>463</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>464</v>
+      </c>
+      <c r="J68" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" t="s">
+        <v>466</v>
+      </c>
+      <c r="L68" t="s">
+        <v>467</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>468</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>470</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>471</v>
+      </c>
+      <c r="J69" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" t="s">
+        <v>473</v>
+      </c>
+      <c r="L69" t="s">
+        <v>474</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>468</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>476</v>
+      </c>
+      <c r="J70" t="s">
+        <v>477</v>
+      </c>
+      <c r="K70" t="s">
+        <v>478</v>
+      </c>
+      <c r="L70" t="s">
+        <v>479</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_541.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="754">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r615217179-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>1676156</t>
+  </si>
+  <si>
+    <t>615217179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great  comfortable for a family </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasonable price with comfortable rooms , the hotel is great for a family as you see below in the photos two great rooms with a living room and small kitchen for a few days it’s good as the hotel near by restaurants coffee shops and outlet mall of Katy mills . </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r599427957-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>599427957</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Really enjoyable stay</t>
+  </si>
+  <si>
+    <t>We were there for only one night. I requested a handicap bathroom. I was very satisfied with the set up. We asked for a king room and it was a good king size room not like one other we stayed with another hotel the night before. Their king size bed was practically a queen size bed but labeled as king size. So we were very happy with Marriott. Breakfast had a variety of selection and we were happy. Would stay again.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r598092658-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>598092658</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Getting rested for tomorrow’s shopping trip!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place, nice staff. We arrived quite late. The king size bed was extremely comfortable. The bathtub does appear to be for shorter individuals. Having a fridge and microwave in the room was convenient. Checkout was easy. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r594157393-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>1676156</t>
-  </si>
-  <si>
     <t>594157393</t>
   </si>
   <si>
@@ -174,12 +228,6 @@
     <t>Check in was fine. Our room was right in front of the elevator, not where we like to stay. You hear the elevator ding all night. The room itself was nice, very modern. There was no stove and a small 2 pot burner to cook if you wanted to. The kitchen sink was nice and big. Full size fridge. We brought the 2 kids and our little yorkie.  The A/C cooled our room really well. So everyone was comfy.  We had a king size bed. The sheets are not as soft as Home 2 Suites. The bed was okay. The pull out for the kids was a queen and it was fine for them. They do not have a designated area for the pets to go potty, even though they do allow pets. Had to just pee on plants and bushes.  Pool area was a bit dangerous,  my kid and several other people slipped walking to the pool. Should probably make it safer to walk to pool. The pool was small but kids enjoyed it.  Probably will not stay here again unless we have to. Nice hotel but it's the small stuff  that matter to us. Comfy bed and soft sheets a place for the animals to go potty.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Check in was fine. Our room was right in front of the elevator, not where we like to stay. You hear the elevator ding all night. The room itself was nice, very modern. There was no stove and a small 2 pot burner to cook if you wanted to. The kitchen sink was nice and big. Full size fridge. We brought the 2 kids and our little yorkie.  The A/C cooled our room really well. So everyone was comfy.  We had a king size bed. The sheets are not as soft as Home 2 Suites. The bed was okay. The pull out for the kids was a queen and it was fine for them. They do not have a designated area for the pets to go potty, even though they do allow pets. Had to just pee on plants and bushes.  Pool area was a bit dangerous,  my kid and several other people slipped walking to the pool. Should probably make it safer to walk to pool. The pool was small but kids enjoyed it.  Probably will not stay here again unless we have to. Nice hotel but it's the small stuff  that matter to us. Comfy bed and soft sheets a place for the animals to go potty.More</t>
   </si>
   <si>
@@ -195,9 +243,6 @@
     <t xml:space="preserve">I have stayed at several Residence Inns around the USA. This one was recently remodeled. In the process, they removed all the carpets in my “platinum upgraded suite” and replaced it with all tile. The “living room”  was sparse with furnishings. Basically just a couch, and not that comfortable at that. Not the homey feel that most Residences give, but It is convenient to the highway if you are needing a good place to stay. The staff members are friendly and the coffee was good. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r593972462-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -213,6 +258,42 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r585612478-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>585612478</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>We stayed here for our grandsons graduation,I was a little worried when I saw they were remodeling but I never saw anyone working and it was very quite and neat. Enjoyed the breakfast in the mornings and we had kids with us so we cooked hot dogs in the room. The mall was in walking distance if you wanted to walk.The front desk was very helpful and polite.I would stay here again if in the area</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r559489003-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>559489003</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>broke down and need a place to stay</t>
+  </si>
+  <si>
+    <t>We recently had car trouble and ended up staying at the Residence Inn, without a vehicle. I asked if there was a fast food near by that I could walk to. The night clerk did not want me to walk in the cold so she insisted that either she would go get something for us to eat or that she would drive me there to pick something up. Wow! That ranks high. But beyond that, the hotel was excellent. A fair morning breakfast, better than average and the rooms were top notch. Highly recommend this for short time stay or long term.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r557743711-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -270,6 +351,55 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r523713174-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>523713174</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>We stayed here as evacuees during the hurricane, as we live in a flood prone area. This was mentioned to the front desk at check in on Friday. However, we only booked the room a couple nights, because we were uncertain how severe the storm would be. Our area ended up being completely inaccessible by Sunday. We asked the front desk to extend our room a couple more nights because we go not yet make it home but to our surprise, the room had already been sold to someone else and the property was allegedly out. If someone tells you they are evacuees, it might be helpful to inquire whether or not they need to occupy the room for a longer length of time - especially during a disaster! We were forced to check out on Sunday in the pouring rain and find a new hotel (that accepted dogs). The staff was of no assistance offering sister locations.
+Also after being denied renewal of the room, I went online and was able to find availability for the same night we inquired about. The price had jumped to $169 a night... about $70 more than we paid at check in! Unbelievable. 
+There was also a leak in the ceiling. The staff did not seem too interested when we first brought it to their attention as they were too preoccupied in their card game.. but ended up sending maintenance Sunday, the day...We stayed here as evacuees during the hurricane, as we live in a flood prone area. This was mentioned to the front desk at check in on Friday. However, we only booked the room a couple nights, because we were uncertain how severe the storm would be. Our area ended up being completely inaccessible by Sunday. We asked the front desk to extend our room a couple more nights because we go not yet make it home but to our surprise, the room had already been sold to someone else and the property was allegedly out. If someone tells you they are evacuees, it might be helpful to inquire whether or not they need to occupy the room for a longer length of time - especially during a disaster! We were forced to check out on Sunday in the pouring rain and find a new hotel (that accepted dogs). The staff was of no assistance offering sister locations.Also after being denied renewal of the room, I went online and was able to find availability for the same night we inquired about. The price had jumped to $169 a night... about $70 more than we paid at check in! Unbelievable. There was also a leak in the ceiling. The staff did not seem too interested when we first brought it to their attention as they were too preoccupied in their card game.. but ended up sending maintenance Sunday, the day we checked out. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here as evacuees during the hurricane, as we live in a flood prone area. This was mentioned to the front desk at check in on Friday. However, we only booked the room a couple nights, because we were uncertain how severe the storm would be. Our area ended up being completely inaccessible by Sunday. We asked the front desk to extend our room a couple more nights because we go not yet make it home but to our surprise, the room had already been sold to someone else and the property was allegedly out. If someone tells you they are evacuees, it might be helpful to inquire whether or not they need to occupy the room for a longer length of time - especially during a disaster! We were forced to check out on Sunday in the pouring rain and find a new hotel (that accepted dogs). The staff was of no assistance offering sister locations.
+Also after being denied renewal of the room, I went online and was able to find availability for the same night we inquired about. The price had jumped to $169 a night... about $70 more than we paid at check in! Unbelievable. 
+There was also a leak in the ceiling. The staff did not seem too interested when we first brought it to their attention as they were too preoccupied in their card game.. but ended up sending maintenance Sunday, the day...We stayed here as evacuees during the hurricane, as we live in a flood prone area. This was mentioned to the front desk at check in on Friday. However, we only booked the room a couple nights, because we were uncertain how severe the storm would be. Our area ended up being completely inaccessible by Sunday. We asked the front desk to extend our room a couple more nights because we go not yet make it home but to our surprise, the room had already been sold to someone else and the property was allegedly out. If someone tells you they are evacuees, it might be helpful to inquire whether or not they need to occupy the room for a longer length of time - especially during a disaster! We were forced to check out on Sunday in the pouring rain and find a new hotel (that accepted dogs). The staff was of no assistance offering sister locations.Also after being denied renewal of the room, I went online and was able to find availability for the same night we inquired about. The price had jumped to $169 a night... about $70 more than we paid at check in! Unbelievable. There was also a leak in the ceiling. The staff did not seem too interested when we first brought it to their attention as they were too preoccupied in their card game.. but ended up sending maintenance Sunday, the day we checked out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r518084056-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>518084056</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Ike Price Increase just because!!!!</t>
+  </si>
+  <si>
+    <t>I booked a room because I anticipated the flooding in the area for Hurricane Harvey. The stay started out rocky but I couldn't cancel. The Room was nicely made but the cleaning was decent. I booked the room thru Sunday but with the weather being a danger, I requested to extend and was told they were booked. Three streets full of water and you're telling me we have to leave. In addition, they jacked their rate up $39 higher than it had been at the time I booked amd the front desk guy told me it was because of flooding. In the middle of a natural disaster why would your process be to book rooms people are already staying in, they would've booked the room regardless but why is that the practice? And I'm a rewards member. They can keep they points,  I'll never stay with Marriot again!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room because I anticipated the flooding in the area for Hurricane Harvey. The stay started out rocky but I couldn't cancel. The Room was nicely made but the cleaning was decent. I booked the room thru Sunday but with the weather being a danger, I requested to extend and was told they were booked. Three streets full of water and you're telling me we have to leave. In addition, they jacked their rate up $39 higher than it had been at the time I booked amd the front desk guy told me it was because of flooding. In the middle of a natural disaster why would your process be to book rooms people are already staying in, they would've booked the room regardless but why is that the practice? And I'm a rewards member. They can keep they points,  I'll never stay with Marriot again!!! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r491299467-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -324,6 +454,51 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r472553217-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>472553217</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>One of the best hotel stays!</t>
+  </si>
+  <si>
+    <t>A very late review for an absolutely wonderful hotel. The hotel staff makes this a wonderful place, they are extremely courteous, cheerful, always willing to help. I stayed here for a week and absolutely loved it.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r468387903-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>468387903</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog Hair EVERYWHERE Stains Human Hair </t>
+  </si>
+  <si>
+    <t>We stayed here because of the reviews but we don't have a pet &amp; there was Dog hair all over our room old light fixtures dirty lamp shades we took lots of photos don't stay here if cleanliness is important we have small children so allergies attached us all breakfast was good but the room blanket has human hair so even if food was 5star the cleanliness of the room ruined our stay we checked our early Frequent Travelers Nightmare Spring Break Interrupted 7photos of proof submitted to Google Expedia Trip Advisor Hope it helps MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Dana W, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here because of the reviews but we don't have a pet &amp; there was Dog hair all over our room old light fixtures dirty lamp shades we took lots of photos don't stay here if cleanliness is important we have small children so allergies attached us all breakfast was good but the room blanket has human hair so even if food was 5star the cleanliness of the room ruined our stay we checked our early Frequent Travelers Nightmare Spring Break Interrupted 7photos of proof submitted to Google Expedia Trip Advisor Hope it helps More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r464157103-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -339,18 +514,9 @@
     <t>Just returned from a one night stay. Very nice property. Friendly staff, large clean, quite room. Comfortable bed &amp; loved the pillows. Free ber, wine &amp; snacks in the evening in the lobby. Very nice hot, fresh breakfast buffet in the mornings. Rooms, hallways &amp;lobby areas very nice &amp; inviting. Separate living area, complete kitchen if you wish to cook.  Easy access off i-10 &amp; across from the Mall with several food options nearby. Really enjoyed my stay here &amp; will be returning soon with recommendations to family &amp; friends.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Dana W, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded March 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 20, 2017</t>
-  </si>
-  <si>
     <t>Just returned from a one night stay. Very nice property. Friendly staff, large clean, quite room. Comfortable bed &amp; loved the pillows. Free ber, wine &amp; snacks in the evening in the lobby. Very nice hot, fresh breakfast buffet in the mornings. Rooms, hallways &amp;lobby areas very nice &amp; inviting. Separate living area, complete kitchen if you wish to cook.  Easy access off i-10 &amp; across from the Mall with several food options nearby. Really enjoyed my stay here &amp; will be returning soon with recommendations to family &amp; friends.More</t>
   </si>
   <si>
@@ -393,6 +559,42 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r450294639-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>450294639</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>As Expected!</t>
+  </si>
+  <si>
+    <t>This was a quick stop over.  We stayed at this Residence Inn.  All was as expected.  It was clean, the staff was friendly and efficient and best of all the WIFI worked.  The hotel is located in the same complex with the mall and Bass Pro Shop.  There is a movie theater and multiple restaurants within minutes of the hotel.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r435559158-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>435559158</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Very good hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel. Within walking distance from the Katy Mills Mall. Spacious and well equipped rooms. Nice and clean. Standard breakfast choices. A small gym and a laundry room. Good wi-fi. They serve small snacks and drinks on some of the week nights. Freindly and service minded staff.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r421869863-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -447,6 +649,39 @@
     <t>I was there for two weeks.  The employees were friendly and went the extra step to help in any way.  The breakfast and social were consistently good.  The hotel was open and light and clean.  My room was clean, and the bed was comfy.  I had a one bedroom, and it was a good size and not tiny like some hotels.  It was quiet with two elevators.  Convenient to lots of stores, restaurants, yet set off enough to be quiet.  I would highly recommend it for short or longer stays.  The only drawback was Direct TV was out for several days, but that was not the hotel's fault.  We had limited service for a few days.  The selection was fairly limited on channels that I liked, but that is minor.  The TV was a good size and not too small.  They could also recycle and use less plastic, but at least they don't have those single-use plastic coffee makers.  Room had cooktop, microwave, toaster and full size fridge.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r382897426-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>382897426</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Receommended this place if you want to stay in the Katy area</t>
+  </si>
+  <si>
+    <t>Stayed here 4 days on a business trip. If you are a tourist who want to see Houston, this might be a bit far outside of Houston downtown. On the other hand, if you got a car it is not to far. I also got around with Ubers, and had no trouble of getting a ride when I wanted. The hotel had a friendly and serviceminded staff. I got a large room with a kitchen, so you had the option to make your own food if you wanted.Katy Mall, a large outlet mall, was just on the other side if the street. You got lots of brand stores here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r382321574-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>382321574</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed here with a group of friends the second weekend in June 2016. The hotel was completely sold out.  Unfortunately one couple arrived late and were turned away even though they had a reservation.  They ended up staying at the new Hilton owned property across the street. These rooms are very spacious and comfortable.  My husband and I were in room 234, which was a large, one bedroom corner suite.  It has an oven, which was not available in all units.  It was also at the end of a quite hall.  There was a stairwell to the parking area right next to it.  There were two televisions, and the bedroom was separated from the living area with the bathroom in between.   One couple's room was on the first floor in front of the basketball court.  Kids were out rather late, and the lights were kept on.  They had to use the darkening shades even during the day because of all the activity. The beds were comfy, the rooms were clean and nicely stocked with some kitchen essentials.  This is a very good mid priced hotel in a great area with walking distance to the mall and several chain restaurants.  The breakfast buffet was standard fair, nothing unusual.  The staff kept it well stocked.  The exercise room was small.  There is a laundry, sports court, and pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here with a group of friends the second weekend in June 2016. The hotel was completely sold out.  Unfortunately one couple arrived late and were turned away even though they had a reservation.  They ended up staying at the new Hilton owned property across the street. These rooms are very spacious and comfortable.  My husband and I were in room 234, which was a large, one bedroom corner suite.  It has an oven, which was not available in all units.  It was also at the end of a quite hall.  There was a stairwell to the parking area right next to it.  There were two televisions, and the bedroom was separated from the living area with the bathroom in between.   One couple's room was on the first floor in front of the basketball court.  Kids were out rather late, and the lights were kept on.  They had to use the darkening shades even during the day because of all the activity. The beds were comfy, the rooms were clean and nicely stocked with some kitchen essentials.  This is a very good mid priced hotel in a great area with walking distance to the mall and several chain restaurants.  The breakfast buffet was standard fair, nothing unusual.  The staff kept it well stocked.  The exercise room was small.  There is a laundry, sports court, and pool.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r377115717-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -507,6 +742,42 @@
     <t>We rent a suite here every Thanksgiving for family overflow... They have good prices and two large rooms and free breakfast.  Its new and clean.  Adjacent to a major shopping center, the Katy Mills Mall, and theatre.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r364700863-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>364700863</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>New hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is in a great area. Its located in a shopping area. There are plenty of restaurants nearby. There is even a rainforest cafe nearby for the kids. It's super clean and new. Rooms were clean and spacious. We were very pleased with the visit. I would recommend it highly to families. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r337631485-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>337631485</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>A great value</t>
+  </si>
+  <si>
+    <t>We had a reservation at another Residence Inn but mistakenly drove to this one in Katy TX and we were glad we made the mistake.  The lady at the front desk (Sabrina!) was very accommodating and Marriott switched my reservations with no penalty even though they require 24-hour cancellations.  The facility looked brand new, the room (suite) was very nice and equipped with stove, large refrigerator, eating area, etc.  A true live-in suite.  Bedding was comfortable, bathroom was a bit small and I'm not a fan of shower/tub combos.  Breakfast was a step above the normal included breakfast.  All in all, a very nice hotel at a great price.  THE place to stay in the Katy or West Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We had a reservation at another Residence Inn but mistakenly drove to this one in Katy TX and we were glad we made the mistake.  The lady at the front desk (Sabrina!) was very accommodating and Marriott switched my reservations with no penalty even though they require 24-hour cancellations.  The facility looked brand new, the room (suite) was very nice and equipped with stove, large refrigerator, eating area, etc.  A true live-in suite.  Bedding was comfortable, bathroom was a bit small and I'm not a fan of shower/tub combos.  Breakfast was a step above the normal included breakfast.  All in all, a very nice hotel at a great price.  THE place to stay in the Katy or West Houston area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r334386226-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -558,6 +829,39 @@
     <t>Sabrina set the tone for one of our best hotel stays ever. In truth, she manages EVERYthing to ensure satisfaction and a great work environment. Breakfasts are very good and we were able to easily manage our own diet restrictions very well.The hotel and rooms are kept in order and clean. All washer/dryers are in working order... expected, but not always true in hotels. It's an easy walk to the Katy Mills Mall or to dine at several local restaurants. I would highly recommend this hotel. If you are lucky enough to have a pet, the hotel has welcoming policies for them, too.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r328008830-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>328008830</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Clean comfortable spacious</t>
+  </si>
+  <si>
+    <t>A clean comfortable spacious place for our family of four.  A fully equipped kitchen.  Good location right next to route 10 and Katy mills mall.  Breakfast, eggs/waffles/cereal/potatoes/sausages/yogurt/fruit, closes at 9am which is a bit early.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r310735130-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>310735130</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Very spacious room, with stove and a big fridge, with nice view, hotel offer various social events with snaks, the place is next to a big shopping mall and next to wallmart store as well as lots of restaurants next by</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r310202164-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -618,15 +922,45 @@
     <t>08/21/2015</t>
   </si>
   <si>
-    <t>Great stay</t>
-  </si>
-  <si>
     <t>We travelled to the Houston area to attend a wedding and this hotel was where the guests were staying. Check in was fast and the front desk and all the employees that we encountered were nice. Our room was spacious and included a mini kitchen area. We only made coffee and used the fridge to store leftovers, but you could cook meals here if you wanted to. All the utensils were provided. The kids enjoyed the pool, using it during the day and at night. Breakfast had plenty of choices for everyone in our group.The Katy Mills Mall is right across the parking lot, so you could walk there or in our case drive since it was around 95 degrees. About 1 mile away is the No Label Brewing Company if you like to try local brewed beer. Starbucks is also less than 1 mile away, so you can have your morning walk and get your coffee.MoreShow less</t>
   </si>
   <si>
     <t>We travelled to the Houston area to attend a wedding and this hotel was where the guests were staying. Check in was fast and the front desk and all the employees that we encountered were nice. Our room was spacious and included a mini kitchen area. We only made coffee and used the fridge to store leftovers, but you could cook meals here if you wanted to. All the utensils were provided. The kids enjoyed the pool, using it during the day and at night. Breakfast had plenty of choices for everyone in our group.The Katy Mills Mall is right across the parking lot, so you could walk there or in our case drive since it was around 95 degrees. About 1 mile away is the No Label Brewing Company if you like to try local brewed beer. Starbucks is also less than 1 mile away, so you can have your morning walk and get your coffee.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r301550662-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>301550662</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>The room was spacious and comfortable. Fully stocked with everything I needed for a busy stay. They will even do your shopping for you and stock your fridge and pantry. Service was outstanding. Full breakfast buffet in the morning. Free drinks and snacks in the evening. Great pool area with a putting green. Centrally located to multiple big shopping centers and restaurants. I would highly recommend this place. I will be staying here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r300073826-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>300073826</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Gorgeous Room</t>
+  </si>
+  <si>
+    <t>The room was huge.  It had a mini kitchen and a mini living room area.  Bathroom was a little small but the room was beautiful and pretty.  The check in girl made it clear that I was bothering her.  The pool was nice and clean.   Also I had to contact the manager prior to visit because I double booked by accident and the customer service rep seemed a bit put out and I wasn't sure what what was going to happen.  A few days later a received an email from the manager and he had taken care of it.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r293321298-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -642,9 +976,6 @@
     <t>The front desk staff was very rude and not very accommodating at all. I was here for 4 days for my Anniversary. I planned on haveing a stove. I called 3 months in advance and made reservations. I was told by a staff at the property every room has ovens. WRONG.  I ASKED FOR 30 MIN LATER C/O. I was told the night of my last night that housekeeping said no late check outs. Then i called that morning and i was told no bc he was booked tonight. MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded July 31, 2015</t>
   </si>
   <si>
@@ -685,9 +1016,6 @@
   </si>
   <si>
     <t>07/25/2015</t>
-  </si>
-  <si>
-    <t>Great experience</t>
   </si>
   <si>
     <t>Accommodation: The rooms are spacious and clean. The air-conditioning worked great, quiet and even throughout the 2 rooms. We loved the kitchen, with full-size refrigerator, microwave oven and electric stove. The dining set, silverware and cooking/kitchen utensils also came in handy. We have toddlers so the setup was perfect for us to make some home-made meals for them, as well as stocking up on snacks and juice.
@@ -700,6 +1028,33 @@
 Staff: Everyone that we met was friendly, from the front desk, to the housekeepers, to the kitchen/breakfast staff. They went out of their way to make sure our stay was pleasant. I had issue with the ethernet cable and wi-fi connection in my room the first day I checked in and contacted the front...Accommodation: The rooms are spacious and clean. The air-conditioning worked great, quiet and even throughout the 2 rooms. We loved the kitchen, with full-size refrigerator, microwave oven and electric stove. The dining set, silverware and cooking/kitchen utensils also came in handy. We have toddlers so the setup was perfect for us to make some home-made meals for them, as well as stocking up on snacks and juice.Proximity: Across from Katy Mills (Outlet) Mall. We were able to literally walk across the parking lot (and a small street) to the mall. Besides the stores, it also had a food-court, merry-go-around, and a small play area for kids. We went there a couple times after dinner and stayed almost until when the mall was closed. The parking lot and the surround area are safe and well-lit. There were also a couple restaurants across the street from the hotel. In addition, there was a Super Wal-Mart nearby (about less than 10 minutes drive, non-highway) with a McDonald’s inside. I made a couple quick runs there for water bottles, food and household items, and found it to be convenient.Staff: Everyone that we met was friendly, from the front desk, to the housekeepers, to the kitchen/breakfast staff. They went out of their way to make sure our stay was pleasant. I had issue with the ethernet cable and wi-fi connection in my room the first day I checked in and contacted the front desk. The gentleman on duty immediately dispatched a technician to locate a new replacement ethernet cable. I was also given a phone number to contact the hotel’s technical support. They assisted me in trouble-shooting the problem and stayed on the phone until I could confirm that I received good wi-fi signals on all of my devices. The breakfast was good with decent varieties, and the hot food menu changed throughout the week that we stayed. During our visit, we also, unfortunately, had a medical emergency situation with a family member. Not only did they help me call 911 and make sure the ambulance knew the exact location, but later on, when the staff member saw me in the hallway, she checked up on me and asked if things were alright (which, thankfully, they were).Overall, we had a great experience staying at Residence Inn Houston Katy Mills, and I highly recommend this hotel if you visit Katy, Texas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r285663905-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>285663905</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff is very welcoming and helpful with recommendations of things to do. The rooms are spacious and the bed was super comfortable. Also located right next to the Katy Mills mall. Went out and came back to a super cleaned room, which I only asked for more towels. Whenever in the area again, will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r284984053-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>284984053</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Big rooms</t>
+  </si>
+  <si>
+    <t>Me and my wife were going to a wedding in Katy and this was one of the hotels on the invitation. First time staying at a Residence Inn and after this visit it wont be the last. It's located not far from the interstate and right across the street from Katy Mills Outlet Mall and many restaurants, also it was very close to the wedding venue. The rooms are large with plenty of space to unwind, next time I'm in Katy I will stay their again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r284397523-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -754,6 +1109,39 @@
     <t>First time visitors with a small family group we were traveling with. Upon arrival, the front desk staff greeted us promptly. We were checking in as part of a group, and we had no issues getting our room. Nice main lobby with seating area. Small pool outside. Serves hot breakfast in the mornings downstairs lobby. Our room was a Studio Suite with a king bed. Small kitchenette with two- burner stovetop (no oven) microwave, refrigerator, regular coffee maker, toaster. basic Dishes, glasses and cookware etc supplied in room. Small table for eating meals. Our room was at the end of long hallway near exterior entry/ stairs, and it was quiet! The room was immaculate. Bathroom very clean. This was a nice hotel that I would recommend and stay at again. Pros: Nice rooms, nice bright lobby, efficient staff. Hot breakfast. Exterior pool with fire pit seating area. Restaurants, pharmacies, Katy Mills Mall nearby. Pet friendly from what we could tell. Cons: if you are at end of hallways, it can be a long walk to elevator, unless you don't mind. Other than that, you probably won't want to leave! : )More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r274980311-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>274980311</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Free Breakfasts</t>
+  </si>
+  <si>
+    <t>Great location, comfortable beds, friendly staff, well air-conditioned, quiet, room had kitchenette, living room, separate master suite, plenty of parking, and, free breakfasts 7 days a week.  Since we have relatives in Katy and in western Houston, we will definitely be here again!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r274822135-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>274822135</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Location</t>
+  </si>
+  <si>
+    <t>Haven't stayed in a Marriott for sometime &amp; was so happy I chose this hotel. Great Location, easy to get in/out of and the staff was absolutely great. Don't be afraid to ask for recommendations or direction the folks here provided us excellent service.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r263650424-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -787,9 +1175,6 @@
     <t>Great locations with an outstanding staff. Ashley scheduled my reservation and received us at check in. Staff did everything and were friendly and courteous. Drug store, grocery and shopping close by. West of downtown Houston, near Brookhire, Texas.</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r260745396-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -805,6 +1190,36 @@
     <t>I had to stay in Katy Texas for 4 days to attend training and meetings. This hotel is very nice and the rooms are nice and spacious. They are like little apartments, very clean and well decorated. The staff is excellent, they are very friendly and helpful and knowledgeable about the area. I would definately stay there again. It is right next to the Katy Mills Mall and the Bass Pro Shop, you just have to walk across the parking lot.. Lots of nice restaurants around too.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r260393019-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>260393019</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Great place, with lovely rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was one of my best hotel experiences. The residence inn is an apartment hotel, so all the rooms are mini suites with kitchens. The staff were great and the room superb. A lot of thought has obviously been put into the design of the rooms. They have managed to get everything you would want into a modest space, that does not feel cramped. A few nice touches included free pop corn and excellent free wifi. They will even get you groceries to stock your kitchen, with no markup!I will certainly be staying here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r259166218-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>259166218</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Simply Marriotrt, Perfected.</t>
+  </si>
+  <si>
+    <t>Recently we had to visit Houston on an emergency basis, but the long drive stopped us just short of the city itself. We were able to walk in, and were treated just like we were the owners. I believe the gentleman's, name was Lou. I really hope I got that name correct, as he represented everything that a person visiting Texas would expect. Very gracious, very outgoing, and just a wonderful person that I could tell has genuine care for his guests.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r248992885-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -865,6 +1280,39 @@
     <t>We stayed for 3 nights recently and found this Marriott property to be a very nice experience, considering it was across from shopping center. That made my wife quite happy, but I could do without. The rooms were spacious and well kept, the staff friendly and helpful. An unexpected surprise was the complimentary, rather complete and tasty breakfast offered downstairs until 9:30am. Housekeeping staff is on the job quite early, so hang your sign until ready...Would definitely stay here again, just bring extra luggage for shopping!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r244755074-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>244755074</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Clean and spacious - great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: Great location next to mall and I-35 but tucked away from the busy streets Very clean in the rooms and the general areas - lobby, hallwaysExterior is well kept Staff was prompt and friendly Breakfast was great value: scrambled eggs/sausage patties/waffles/country potatoes/pancakes/fresh fruit/bagels --- good value for price  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r242937251-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>242937251</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Great rooms</t>
+  </si>
+  <si>
+    <t>We had two rooms on Saturday night for a wedding. My husband and I stayed in the King Studio. Very spacious and more that comfortable for the 2 of us. Also had a two bedroom room which was also very nice.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r241187827-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -880,9 +1328,6 @@
     <t>The hotel rooms are very spacious, and well designed.  I loved the room.  I've lived in an efficiency apartment that was smaller than this room. The staff was great except I had a little trouble finding someone at the front desk when I checked in.  I spent 1 night there the week before Thanksgiving.  They had a guy frying turkeys outside for their Thanksgiving feast the night I was there.  This is what they served to the guests for dinner that evening-- turkey with the trimmings.  I couldn't believe they would go to so much trouble for their guests.  What a great place!  In the morning, the kitchen staff was nice and kept everything well stocked. I'd definitely stay there again.  I also liked that their check out time was noon rather than 11 am.MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>The hotel rooms are very spacious, and well designed.  I loved the room.  I've lived in an efficiency apartment that was smaller than this room. The staff was great except I had a little trouble finding someone at the front desk when I checked in.  I spent 1 night there the week before Thanksgiving.  They had a guy frying turkeys outside for their Thanksgiving feast the night I was there.  This is what they served to the guests for dinner that evening-- turkey with the trimmings.  I couldn't believe they would go to so much trouble for their guests.  What a great place!  In the morning, the kitchen staff was nice and kept everything well stocked. I'd definitely stay there again.  I also liked that their check out time was noon rather than 11 am.More</t>
   </si>
   <si>
@@ -925,6 +1370,54 @@
     <t>The rooms are so good in general. The problem for my is the noise. I was sleeping in front of AA machine, terrible. The breakfast is terrible is ever the same. The hotel is in front of the mall and could be an option if you would like to spend some time there. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r235730455-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>235730455</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Nice, clean, not exceptional</t>
+  </si>
+  <si>
+    <t>For years I was a HiltonHonors loyal customer. After several bad experiences I switched all my stays, and my Teams stays to Marriott. I am still feeling out which brand I prefer. This is my first stay at a Residence Inn. Stayed here based on Trip Advisor reviews over their sister hotel a few blocks away. The guest check in was fine. Room is fine. Price is fine. Location is fine. So what is the average rating?The furniture is cheap looking, think Ikea. Had to call down to the front desk for shampoo. The soap bar is the size of a tic tac. The TV channels were very blurry (found the cable not screwed in tight) came back the next day at 4pm, the room service was just getting ready to go in and service the room. I had them leave towels and more tic tac soap.Not bad, just nothing great to come back to. Was very quite. Bed comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Soyoung A, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>For years I was a HiltonHonors loyal customer. After several bad experiences I switched all my stays, and my Teams stays to Marriott. I am still feeling out which brand I prefer. This is my first stay at a Residence Inn. Stayed here based on Trip Advisor reviews over their sister hotel a few blocks away. The guest check in was fine. Room is fine. Price is fine. Location is fine. So what is the average rating?The furniture is cheap looking, think Ikea. Had to call down to the front desk for shampoo. The soap bar is the size of a tic tac. The TV channels were very blurry (found the cable not screwed in tight) came back the next day at 4pm, the room service was just getting ready to go in and service the room. I had them leave towels and more tic tac soap.Not bad, just nothing great to come back to. Was very quite. Bed comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r234444534-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>234444534</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Great for a Family with a Five Month Old</t>
+  </si>
+  <si>
+    <t>We traveled to Katy for a wedding with our five month old son.  The room was great and had everything that we needed.  Our son is on formula and the full kitchen was great to have.  We were able to use the sink to wash bottles and keep the formula cold in the refrigerator.  The location was great too.  There is a Fuddruckers across the street and that made for an easy and quick dinner one night.  The Bass Pro Shop just down the street was a great time killer too.The room was very clean and we would definitely stay here again if we ever made a trip back to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We traveled to Katy for a wedding with our five month old son.  The room was great and had everything that we needed.  Our son is on formula and the full kitchen was great to have.  We were able to use the sink to wash bottles and keep the formula cold in the refrigerator.  The location was great too.  There is a Fuddruckers across the street and that made for an easy and quick dinner one night.  The Bass Pro Shop just down the street was a great time killer too.The room was very clean and we would definitely stay here again if we ever made a trip back to the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r223964273-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1472,54 @@
     <t>The rooms were large spacious and clean and the breakfast was excellent! Right next to great shopping too! You need to rent a car if you are going to do things in Houston but it is not to long a drive to anywhere (unless you get stuck in rush hour)</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r215899768-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>215899768</t>
+  </si>
+  <si>
+    <t>NOT pet friendly</t>
+  </si>
+  <si>
+    <t>You state you are pet friendly, however after I get there you tell me it cost $100 to have a pet....and it is NOT refundable.   I do not call that pet "friendly".   You obviously do not really want pets.  I would have been nice if you had just stated that in your website up front.MoreShow less</t>
+  </si>
+  <si>
+    <t>Soyoung A, Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded July 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2014</t>
+  </si>
+  <si>
+    <t>You state you are pet friendly, however after I get there you tell me it cost $100 to have a pet....and it is NOT refundable.   I do not call that pet "friendly".   You obviously do not really want pets.  I would have been nice if you had just stated that in your website up front.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r213144050-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>213144050</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>First Marriot I Will Not Return To!</t>
+  </si>
+  <si>
+    <t>I travel for business and had a late meeting at the Petro Skills location close to the hotel.  The class unfortunately ran longer than expected so i asked for a late check out.  I was told that a late checkout is not possible because they are sold out for that night and my wife and i were forced to leave the room.Customer service is the most important especially when traveling and this hotel FAILED.I do not recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Soyoung A, General Manager at Residence Inn Houston Katy Mills, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>I travel for business and had a late meeting at the Petro Skills location close to the hotel.  The class unfortunately ran longer than expected so i asked for a late check out.  I was told that a late checkout is not possible because they are sold out for that night and my wife and i were forced to leave the room.Customer service is the most important especially when traveling and this hotel FAILED.I do not recommend!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r207644540-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1012,9 +1553,6 @@
     <t>We stayed last night and trust to form it was a very nice stay.  Excellent bed, excellent breakfast, and even though the property was full it was really quiet.  The eggs were fantastic so whomever is doing the cookin needs a raise.</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r201708080-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1568,42 @@
     <t>Updated Residence Inn with great proximity to shopping, freeway etc. The layout is much improved over the old style and the finishes are very nice (granite, stainless steel in kitchen). Good workout roomGood breakfast set up Fast wifiComfortable bedHelpful and friendly staffMy only complaint was the crappy people that were staying above me that chose 1am to start playing tag or something.. I called the front desk and they handled it quickly, although I did get several loud stomps afterwards as retaliation. haha ;-) Will definitely stay here again when on business.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r198421349-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>198421349</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Class Act</t>
+  </si>
+  <si>
+    <t>Stayed 3 nites while on vacation. Front desk staff was very helpful extending reservations, etc. Property is next to Katy Mills Factory Outlets. Breakfast was outstanding. Managers reception served a a light dinner and drinks for us. Room was very good, Essentially a new property.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r194890219-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>194890219</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>We had a 2 bedroom suite and loved it. Staff are very accommodating and friendly. I agree with the other reviews of this facility. It had a basketball court which my grandson just loved. You don't see that often. The grill also allowed us to cook some of our meals. I thought the rate was very good for what we got</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r188013764-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1658,36 @@
     <t>My teenage son and I travel around Texas at least one weekend a month for tennis tournaments and have done so for the past 2 years.   Of all the places we have stayed we both agreed that for the money i am willing to spend for our weekend rooms, this was the cleanest, homiest, friendliest, most luxurious for the price, with the best hot breakfast (scrambled eggs not from powder, sausage, bacon, potatoes, pancakes not from a machine, waffles), of anywhere we have stayed during the last 2 years.  Had  full, granite countertop kitchen in the room with dishwasher, full-size fridge with ice maker, microwave, brand new fitness equipment in gym. On site laundry.  ---We had a king room with pull out sofa sleeper and even the sleeper sofa mattress was great. Could not  have been happier.  Very friend helpful staff.  Fuddruckers and Katy Mills mall and movie theater across the street.  Near to many other restaurants.  Looking forward to next year's tourney there!  :-)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r183532487-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>183532487</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Great Family Stay</t>
+  </si>
+  <si>
+    <t>Had to stay here for 5 nights with a newborn, dog, husband and father in law waiting for our furniture to arrive from Cali and it was fantastic. We had the two bedroom suite which was perfect. Hotel is clean convenient and even has a nightly free social hour with drinks and food! Would definitely stay here again if necessary !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r178940195-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>178940195</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel had everything that we needed. The staff was very helpful, when I checked in they even gave me a coupon book to use at the mall that is right by them. The only bad thing about that was that the specific stores at the mall wouldn't accept the coupon. (Its the thought that counts though.)I liked this place because it was convenient to everything. Rooms were very clean and comfortable.The breakfast was great! The only downfall that I would mention is the room was a bit pricey, even booking through Expedia.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r175817086-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1736,42 @@
     <t>We were on a mini BBQ tour and then over to La. for a family visit. We were very excited to find the hotel directly across the street from the Katy Mills outlet mall. Check in was a breeze, the room was very nice with a view of the pool.  We really like the setup of these hotel rooms.  Nice kitchen if you want to cook with full size fridge.  Table and separate desk area, couch and chairs with a king size bed. Love that the sink and mirror are separate from toilet and bath area. We left too early to enjoy the breakfast.  The bed was very comfortable and the room very clean!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r170945680-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>170945680</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Residence Inn, Katy, TX</t>
+  </si>
+  <si>
+    <t>Another great destination for traveling with a four-legged companion, IF you don't mind the Marriott $100 pet fee, which I think is exorbitant and ought to be disclosed at time of reservation (it only says charge for pets, doesn't disclose how much).  Get "outside" Houston I-10 traffic and stop at this great find...near Katy Mills with lots of shops, restaurants, and just seconds off the Interstate.  Sidewalks and safe walking areas for the pooch.  Hotel's happy hour buffet is a misnomer...this is DINNER, of a simple variety but enough truly to be dinner.  Two restaurants directly across the street (Fuddruckers and one other).  Rooms are like new, good Internet connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Another great destination for traveling with a four-legged companion, IF you don't mind the Marriott $100 pet fee, which I think is exorbitant and ought to be disclosed at time of reservation (it only says charge for pets, doesn't disclose how much).  Get "outside" Houston I-10 traffic and stop at this great find...near Katy Mills with lots of shops, restaurants, and just seconds off the Interstate.  Sidewalks and safe walking areas for the pooch.  Hotel's happy hour buffet is a misnomer...this is DINNER, of a simple variety but enough truly to be dinner.  Two restaurants directly across the street (Fuddruckers and one other).  Rooms are like new, good Internet connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r170475310-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>170475310</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Lovely place-almost home away from home</t>
+  </si>
+  <si>
+    <t>We stayed at Katy Mills Residence Inn from 24th of July 2013 to 30 July 2013. We stayed in the corner suite with our 13yr old son. The suite was very well furnished with all the necessary things you will need for your stay. It was nice and spacious for all three of us and the staff were very helpful and polite. It is also opposite the Katy Mills Mall so very handy for shopping.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r167248347-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1165,9 +1805,6 @@
     <t>We are staying at this hotel for an extended period during a move.  It has turned out to be a good option. We have a "corner king" room which sits at the end of a hall and is very quiet.  The location on the Katy Mills Mall property is convenient and quiet since there are no busy streets near the hotel. The staff have been helpful. The only downside has been that the living room furniture is not very comfortable. We are glad that we chose this location.</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r159701588-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1186,6 +1823,39 @@
     <t>I stayed there for a week with my husband as we were visiting friends who live in Katy. Location was great close to our friends, Katy mills mall and not too far from downtown 30min . The room was fantastic with great storage space, plus side is the spacious and private living room as my husband wakes up really early so my room had a separate door to seperate the room from the living space. Breakfast was good and the price was very reasonable . Wifi connection was free as well. Sorry it took me so long to review the hotel ,I would definitely stay there again if I ever visit Katy again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r156684729-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>156684729</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Perfect for your family stay</t>
+  </si>
+  <si>
+    <t>My family of four stayed here for a long weekend over Easter in a two bedroom suite. The room worked perfectly with the whole family to be together in one suite, breakfast was included in the price of the room. The pool are was very nice with hot tub and fire pit sitting area. There was a fitness room and a basketball court as well. It was located near multiple restaurants and shopping at the outlet mall. If you ever need to stay in the Katy area this is the place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r154958405-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>154958405</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>You can never go wrong with a Residence Inn</t>
+  </si>
+  <si>
+    <t>Very nice and always consistent with Marriott's Residence Inn brand.  Room was super nice and clean.  I really like when the shower &amp; commode have a door closing them off from the sink area.  Lots of mirrors to help you get ready to get dressed up for a night on the town. The beds are ALWAYS so comfortable!  The TV swivels between watching from the bed or the couch area.  It really felt like you had a separate kitchen, living room and bedroom.  It's so close to the Katy Mills mall and more convenience closeby like grocer, etc.  You are so close to I-10 but can't hear the traffic at all, so the best of both worlds.  You won't be sorry if you book this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice and always consistent with Marriott's Residence Inn brand.  Room was super nice and clean.  I really like when the shower &amp; commode have a door closing them off from the sink area.  Lots of mirrors to help you get ready to get dressed up for a night on the town. The beds are ALWAYS so comfortable!  The TV swivels between watching from the bed or the couch area.  It really felt like you had a separate kitchen, living room and bedroom.  It's so close to the Katy Mills mall and more convenience closeby like grocer, etc.  You are so close to I-10 but can't hear the traffic at all, so the best of both worlds.  You won't be sorry if you book this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r154571515-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1907,42 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r146496921-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>146496921</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Black Friday Shopping</t>
+  </si>
+  <si>
+    <t>We traveled approx. 2 1/2 for some Black Friday Christmas Shopping to the Katy Mills Mall in Katy, Texas. We arrived around 9:30ish, the grand daughter and myself went out into the mall and left hubby at Bass Pro. The mall was not all all crowded as we arrived. We made one trip around and by that time the grand was ready for lunch. Store reps were pleaseant to deal with. We left the mall at 2:30 and checked into the Residence Inn which is directly accross from the mall within walking distance. The desk clerk allowed us to check in a little early, We removed all our packages and proceeded to our room, which was exceptionally clean. We even went to Memorial City Mall by this time was packed with people. Dinner at Texas Land and Cattle, was nothing to talk about, I've had much better steaks cooked at home. Back to the hotel where we walked over to the movie  and walked back afterward, Was not a bad area to be in at night. The mornings breakfast bar was great, a variety of items. I would visit this area and hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We traveled approx. 2 1/2 for some Black Friday Christmas Shopping to the Katy Mills Mall in Katy, Texas. We arrived around 9:30ish, the grand daughter and myself went out into the mall and left hubby at Bass Pro. The mall was not all all crowded as we arrived. We made one trip around and by that time the grand was ready for lunch. Store reps were pleaseant to deal with. We left the mall at 2:30 and checked into the Residence Inn which is directly accross from the mall within walking distance. The desk clerk allowed us to check in a little early, We removed all our packages and proceeded to our room, which was exceptionally clean. We even went to Memorial City Mall by this time was packed with people. Dinner at Texas Land and Cattle, was nothing to talk about, I've had much better steaks cooked at home. Back to the hotel where we walked over to the movie  and walked back afterward, Was not a bad area to be in at night. The mornings breakfast bar was great, a variety of items. I would visit this area and hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r146112968-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>146112968</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>Another great Ressidence Inn</t>
+  </si>
+  <si>
+    <t>We decided to stay at the Katy Residence Inn while attending an event nearby and the good Trip Advisor reviews. The hotel is conveniently located within walking distance from a few restaurants and a shopping mall. Check in was quick and efficient, and as with all Residence Inn stays, the room we got was perfect for our needs and it was clean and quiet. Unfortunately, we arrived quite late and had to leave early but if we are ever back in the Katy area, I know where we will be staying at;)</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r141481995-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1292,6 +1998,39 @@
   </si>
   <si>
     <t>Great Hotel in Katy, if you are shoppin or comming for a training to PetroSkills, this is the place. Rooms are great, with a king size bed, it also has a comfortable desk to work, a table for 2 people, a 3 person sofa and a  big coach to rest.It also holds a kitchen, where you can cook, or simply prepare yourself a sandwich! a Fridge and a micro wave.Everyday there's a brunch on the managers,  there's BBQ place where you can cook yourself, swimming pool, basketball court.Not to say about the location, infront of katy mills outlet mall and Bass Pro Shops!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r130957233-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>130957233</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Stayed many times.I choose this hotel, because of size of the rooms and full kitchen. Large, spacious &amp; clean rooms and bathroom. 1 or 2 large windows, could be open.Big refrigerator, microwave, dish washing machine.Breakfast average i would say- scrambled eggs, sausages, some fruits, some apples, oranges &amp; yoghurt's, cofe(regular &amp; decaf).There are schedule list on each refrigerator, showing  future week events for each day. On Monday-barbecue(free), on Tuesday-wine and beer(also free), on Friday- something else and etc.Large parking-free, fast wi-fi -free, elevators, news papers(local and national), cofe and juices available all day long.There are few restaurants near by-Red Lobster and others(tgi Fridays, pizzas)Katy Mills Shopping Mall near by, Outdoor World shop (hunting and fishing gears, boats, guns etc)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Stayed many times.I choose this hotel, because of size of the rooms and full kitchen. Large, spacious &amp; clean rooms and bathroom. 1 or 2 large windows, could be open.Big refrigerator, microwave, dish washing machine.Breakfast average i would say- scrambled eggs, sausages, some fruits, some apples, oranges &amp; yoghurt's, cofe(regular &amp; decaf).There are schedule list on each refrigerator, showing  future week events for each day. On Monday-barbecue(free), on Tuesday-wine and beer(also free), on Friday- something else and etc.Large parking-free, fast wi-fi -free, elevators, news papers(local and national), cofe and juices available all day long.There are few restaurants near by-Red Lobster and others(tgi Fridays, pizzas)Katy Mills Shopping Mall near by, Outdoor World shop (hunting and fishing gears, boats, guns etc)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r126473701-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>126473701</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>Not bad at all</t>
+  </si>
+  <si>
+    <t>I was expecting much less. Overall, I like the place, I just had a couple of small things I have to ding them for.The main issue was the AC. The AC was set as low as it would go on hi fan and it still was too hot in the room.The bed wasnt the best for me. It wasnt terrible, just not as comfortable as Im used to.But the staff was friendly and the property was clean.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r125699155-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -1320,9 +2059,6 @@
 It is walking distance to...I cannot praise this hotel highly enough incredible on service friendliness cleanliness!I work around the world living in hotels from the Top hotels  like the Ritz Carleton in Kuala Lumpur down to a holiday Inn – But - this hotel Residence Inn by Marriott Katy is outstanding The Front staff - so friendly and helpfulQuote From their brochure ´Our suites feature fully equipped kitchens, upgraded cabinets with frosted glass doors, granite counter tops, and separate working desk, dining &amp; living area. We offer complimentary hot breakfast buffet daily &amp; evening Social Hour (Mon.-Thurs.). We provide free Wi-Fi internet access, a sport court/putting green, outdoor pool/spa, fire pit with outdoor seating area, &amp; state-of-the-art fitness centre. Our Business Centre and Library with sitting pods are the perfect places for productivity, creativity, relaxation and fun!’Everything is exceptional – even free printing – The social hour is Wine Beer and Nibbles included in your price.The breakfast has to go plates and cups! Swimming Pool and an outdoor BBQ that you can use has a great seating area Guest Laundry with dryers – so you don’t have a large Laundry bill charges $2 for a wash then $2 for the dryer The Hotel will even do your grocery shopping and put it in your fridge for you return you just leave your shopping list with the Front Desk Free shuttle radius 5 miles also included It is walking distance to Katy Mills Shopping Outlet Mall and Wallmart The best Mexican - directly across the road is Los Cucos  plus TGI Fridays and Fudruckers I shall always stay at this hotel when I am in Katy I adore it – A fantastic Business Hotel plus they are great with Children 10 Stars **************************************************************MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>I cannot praise this hotel highly enough incredible on service friendliness cleanliness!
 I work around the world living in hotels from the Top hotels  like the Ritz Carleton in Kuala Lumpur down to a holiday Inn – But - this hotel Residence Inn by Marriott Katy is outstanding 
 The Front staff - so friendly and helpful
@@ -1380,6 +2116,42 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r121682589-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>121682589</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Stay here!  Stay here!</t>
+  </si>
+  <si>
+    <t>I'm so glad I had the opportunity to stay here.  It's exceptionally clean and new.  The staff is friendly and helpful.  The bed comfortable/room size great/all equipment and furnishings new.  They're located across the parking lot of the Katy Mills mall, if you enjoy shopping, and a few restaurants.  The reason I chose this hotel is because they have a shuttle service around town for dining, grocery/other shopping, etc., so I didn't need a car once I got there.  They have a good breakfast, and served dinner, although I didn't partake.  They also had a social hour, served wine/beer, cheese/crackers.  There's a (very) little "store" in the lobby if you've forgotten anything, and there are a few non-essential to travelling items available--  like icecream and other things to eat.  I didn't try the exercise equipment.  The only drawback for me was that I flew in to Hobby Airport and had a very expensive round trip taxi expense, but it was still less than having to rent a car/gas, and I didn't have the hassle of navigating Houston traffic.  (It would be the same if I flew in to Bush International airport.)  I didn't include this in their rating, because this situation is more unique to my travel situation than the hotel itself.  I know of others who wanted to stay here, but they didn't book early enough!  So, keep that in mind...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I'm so glad I had the opportunity to stay here.  It's exceptionally clean and new.  The staff is friendly and helpful.  The bed comfortable/room size great/all equipment and furnishings new.  They're located across the parking lot of the Katy Mills mall, if you enjoy shopping, and a few restaurants.  The reason I chose this hotel is because they have a shuttle service around town for dining, grocery/other shopping, etc., so I didn't need a car once I got there.  They have a good breakfast, and served dinner, although I didn't partake.  They also had a social hour, served wine/beer, cheese/crackers.  There's a (very) little "store" in the lobby if you've forgotten anything, and there are a few non-essential to travelling items available--  like icecream and other things to eat.  I didn't try the exercise equipment.  The only drawback for me was that I flew in to Hobby Airport and had a very expensive round trip taxi expense, but it was still less than having to rent a car/gas, and I didn't have the hassle of navigating Houston traffic.  (It would be the same if I flew in to Bush International airport.)  I didn't include this in their rating, because this situation is more unique to my travel situation than the hotel itself.  I know of others who wanted to stay here, but they didn't book early enough!  So, keep that in mind...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r121403887-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>121403887</t>
+  </si>
+  <si>
+    <t>12/04/2011</t>
+  </si>
+  <si>
+    <t>friendly value</t>
+  </si>
+  <si>
+    <t>Hotel is excellent for business travelers.  Value plus friendly, helpful staff.  Nice breakfast and evening social hours provide light dinner (M-TH).   Recommend car rental if possible because airport shuttle is expensive. Hotel provides shuttle for nearby businesses.  Rooms have small kitchenette for self-catering.  Excellent room design.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r121129352-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1395,9 +2167,6 @@
     <t>We were looking for a hotel that would take our us and our 3 dogs and 2 birds for the duration of our temporary living in Houston. We were waiting for our house to be built, and had to find a place for all of our pets, since they cannot be boarded. After a long and fruitless search, we found Residence Inn, right across the street from Katy Mills Mall. The hotel and our room significantly exceeded our expectations. Comfortably and stylishly outfitted with the latest and greatest, our suite was a beautiful place, coupled with granite countertop kitchen and all appliances, a work area, a separate room with doors that we can close to keep the dogs separate from the birds, and plenty of light. The location was great and there was a large field behind the hotel, where we saw many other hotel residents walk their 4-legged pets. It was a quiet hotel, and we could use the housekeeping or just get our own sheets if we didn't want housekeeping. Free wifi, delicious hot breakfast and light dinner were available. We found a great place and would recommend it to anyone. The concierge was always extra friendly and pointed us to the area restaurants and taught us about Katy.MoreShow less</t>
   </si>
   <si>
-    <t>November 2011</t>
-  </si>
-  <si>
     <t>We were looking for a hotel that would take our us and our 3 dogs and 2 birds for the duration of our temporary living in Houston. We were waiting for our house to be built, and had to find a place for all of our pets, since they cannot be boarded. After a long and fruitless search, we found Residence Inn, right across the street from Katy Mills Mall. The hotel and our room significantly exceeded our expectations. Comfortably and stylishly outfitted with the latest and greatest, our suite was a beautiful place, coupled with granite countertop kitchen and all appliances, a work area, a separate room with doors that we can close to keep the dogs separate from the birds, and plenty of light. The location was great and there was a large field behind the hotel, where we saw many other hotel residents walk their 4-legged pets. It was a quiet hotel, and we could use the housekeeping or just get our own sheets if we didn't want housekeeping. Free wifi, delicious hot breakfast and light dinner were available. We found a great place and would recommend it to anyone. The concierge was always extra friendly and pointed us to the area restaurants and taught us about Katy.More</t>
   </si>
   <si>
@@ -1437,6 +2206,42 @@
     <t>Beautiful rooms, brand new hotel.  But I stayed during the big heat wave (August 2011:  98--103 every day) and this hotel was unable to cool the rooms down below about 78 degrees.   For the next trip I switched to the Hilton Garden Inn, which recently installed new air conditioning which gets the rooms very cold.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r116600813-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>116600813</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>Brand new, great location</t>
+  </si>
+  <si>
+    <t>If you are visiting Katy for business or leisure this is a great place to stay. Hotel is new and very well located near Katy Mills</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r115371915-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>115371915</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is the best in its class. My 18 month old and I traveled here with my husband who was in town on business.  This hotel provided everything that we needed.  It was very clean and well kept, the staff was extremely accommodating, and the hotel provides everything you need for a home away from home.  This hotel definitely spoiled us (I constantly find myself being disappointed by other hotels in this class because they just don't compare to this Residence Inn)!  If you have the opportunity, you should stay here...you won't be disappointed!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r114581478-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1488,7 +2293,31 @@
     <t>we were in town for a wedding and this hotel was great. Very clean , has a wonderful staff at every level, very nice breakfast. We had a studio room which was very nice, lots of lights, good mirrors, beautiful kitchen, well equipped. Absolutely no negatives. Great location right off I-10 with an outlet mall across the street and a HEB and Super Walmart nearby if you need them.  We just had a great stay!</t>
   </si>
   <si>
-    <t>May 2011</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d1676156-r73326320-Residence_Inn_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>73326320</t>
+  </si>
+  <si>
+    <t>08/01/2010</t>
+  </si>
+  <si>
+    <t>Location next to training centre made Houston humidity bearable</t>
+  </si>
+  <si>
+    <t>I originally selected this hotel as it was indicated as being next door to Petroskills training centre, where I attended a week long course.
+I arrived to Houston late (due to a cancelled flight ) to find the humidity to be horrendous which put me in a bad mood but once I got to the hotel they answered all of my questions and gave me advice on where to go eat and what my entertainment options were for the remainder of the evening.  Throughout the stay all of the staff were very nice and quite helpful.
+The room looked brand new and had all the amenties included: free wi-fi, free wired high speed, 60 channel Directv (with two channels of HBO), and a full kitchenette.  The hotel breakfast was good with a couple of hot and cold options.  During the week (Monday to Thursday) the hotel served light appetizers and drinks (one or two types of beer with red and white wine) in the evening.
+One nice service that the hotel does not mention on its website is that they will go grocery shopping for you at no extra charge.  All I had to do was leave a detailed shopping list at reception and the next day I came back from my course to find the fruit I had requested in the fridge, the other items on the counter, and a photocopy of the receipt with a hand written apology...I originally selected this hotel as it was indicated as being next door to Petroskills training centre, where I attended a week long course.I arrived to Houston late (due to a cancelled flight ) to find the humidity to be horrendous which put me in a bad mood but once I got to the hotel they answered all of my questions and gave me advice on where to go eat and what my entertainment options were for the remainder of the evening.  Throughout the stay all of the staff were very nice and quite helpful.The room looked brand new and had all the amenties included: free wi-fi, free wired high speed, 60 channel Directv (with two channels of HBO), and a full kitchenette.  The hotel breakfast was good with a couple of hot and cold options.  During the week (Monday to Thursday) the hotel served light appetizers and drinks (one or two types of beer with red and white wine) in the evening.One nice service that the hotel does not mention on its website is that they will go grocery shopping for you at no extra charge.  All I had to do was leave a detailed shopping list at reception and the next day I came back from my course to find the fruit I had requested in the fridge, the other items on the counter, and a photocopy of the receipt with a hand written apology that they could not find a requested item and they had to make a substitution.  The grocery order was placed on my hotel bill as food.The best part of the hotel was that all I had to do was walk out the door and across the parking lot to the Petroskills building.  A number of the other people in my course were staying in hotels on the other side of the mall and had to wait for the shuttle to pick them up or walk 3/4 mile in the Houston humidity.If you are coming to Katy to attend a Petroskills course I strongly recommend that you consider staying next door at the Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I originally selected this hotel as it was indicated as being next door to Petroskills training centre, where I attended a week long course.
+I arrived to Houston late (due to a cancelled flight ) to find the humidity to be horrendous which put me in a bad mood but once I got to the hotel they answered all of my questions and gave me advice on where to go eat and what my entertainment options were for the remainder of the evening.  Throughout the stay all of the staff were very nice and quite helpful.
+The room looked brand new and had all the amenties included: free wi-fi, free wired high speed, 60 channel Directv (with two channels of HBO), and a full kitchenette.  The hotel breakfast was good with a couple of hot and cold options.  During the week (Monday to Thursday) the hotel served light appetizers and drinks (one or two types of beer with red and white wine) in the evening.
+One nice service that the hotel does not mention on its website is that they will go grocery shopping for you at no extra charge.  All I had to do was leave a detailed shopping list at reception and the next day I came back from my course to find the fruit I had requested in the fridge, the other items on the counter, and a photocopy of the receipt with a hand written apology...I originally selected this hotel as it was indicated as being next door to Petroskills training centre, where I attended a week long course.I arrived to Houston late (due to a cancelled flight ) to find the humidity to be horrendous which put me in a bad mood but once I got to the hotel they answered all of my questions and gave me advice on where to go eat and what my entertainment options were for the remainder of the evening.  Throughout the stay all of the staff were very nice and quite helpful.The room looked brand new and had all the amenties included: free wi-fi, free wired high speed, 60 channel Directv (with two channels of HBO), and a full kitchenette.  The hotel breakfast was good with a couple of hot and cold options.  During the week (Monday to Thursday) the hotel served light appetizers and drinks (one or two types of beer with red and white wine) in the evening.One nice service that the hotel does not mention on its website is that they will go grocery shopping for you at no extra charge.  All I had to do was leave a detailed shopping list at reception and the next day I came back from my course to find the fruit I had requested in the fridge, the other items on the counter, and a photocopy of the receipt with a hand written apology that they could not find a requested item and they had to make a substitution.  The grocery order was placed on my hotel bill as food.The best part of the hotel was that all I had to do was walk out the door and across the parking lot to the Petroskills building.  A number of the other people in my course were staying in hotels on the other side of the mall and had to wait for the shuttle to pick them up or walk 3/4 mile in the Houston humidity.If you are coming to Katy to attend a Petroskills course I strongly recommend that you consider staying next door at the Residence Inn.More</t>
   </si>
 </sst>
 </file>
@@ -2014,22 +2843,22 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2043,7 +2872,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2059,31 +2888,31 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
@@ -2100,7 +2929,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2128,22 +2957,22 @@
         <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2157,7 +2986,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2197,10 +3026,10 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2214,7 +3043,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2230,34 +3059,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2271,7 +3100,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -2287,54 +3116,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
         <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2350,46 +3173,44 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2397,7 +3218,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -2413,48 +3234,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -2470,54 +3295,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
         <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -2533,56 +3352,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>103</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>104</v>
       </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
-      </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" t="s">
-        <v>110</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -2598,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2607,49 +3418,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>109</v>
-      </c>
-      <c r="X12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -2665,54 +3472,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" t="s">
         <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>124</v>
-      </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2728,7 +3533,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2737,45 +3542,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -2791,7 +3590,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2800,39 +3599,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2848,54 +3653,48 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>101</v>
-      </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -2911,44 +3710,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>143</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>130</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2956,7 +3757,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -2972,48 +3773,54 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
         <v>148</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>149</v>
       </c>
-      <c r="J18" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>153</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -3029,58 +3836,52 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
         <v>154</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>155</v>
       </c>
-      <c r="J19" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="X19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -3096,38 +3897,36 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
         <v>163</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
         <v>164</v>
       </c>
-      <c r="J20" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>159</v>
-      </c>
-      <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
@@ -3140,10 +3939,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>156</v>
+      </c>
+      <c r="X20" t="s">
+        <v>157</v>
+      </c>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -3159,48 +3962,58 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
         <v>169</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>170</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>171</v>
       </c>
-      <c r="K21" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>174</v>
-      </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>156</v>
+      </c>
+      <c r="X21" t="s">
+        <v>157</v>
+      </c>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -3216,34 +4029,34 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
         <v>175</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>176</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>177</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>178</v>
       </c>
-      <c r="L22" t="s">
-        <v>179</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>159</v>
-      </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3263,7 +4076,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -3279,48 +4092,54 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>180</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>181</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>182</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>183</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>184</v>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>185</v>
-      </c>
-      <c r="X23" t="s">
-        <v>186</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -3336,58 +4155,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
         <v>188</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>189</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>190</v>
       </c>
-      <c r="K24" t="s">
-        <v>191</v>
-      </c>
-      <c r="L24" t="s">
-        <v>192</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>193</v>
-      </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>4</v>
       </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X24" t="s">
-        <v>195</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -3403,7 +4216,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3412,30 +4225,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
@@ -3448,7 +4263,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
@@ -3464,7 +4279,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3473,25 +4288,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3502,14 +4317,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>209</v>
-      </c>
-      <c r="X26" t="s">
-        <v>210</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -3525,7 +4336,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3534,47 +4345,45 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>217</v>
-      </c>
-      <c r="X27" t="s">
-        <v>218</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -3590,7 +4399,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3599,30 +4408,30 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="n">
         <v>5</v>
@@ -3637,7 +4446,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -3653,7 +4462,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3662,39 +4471,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
@@ -3710,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3719,32 +4532,32 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3755,7 +4568,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
@@ -3771,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3780,45 +4593,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
@@ -3834,7 +4641,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3843,45 +4650,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>237</v>
+      </c>
+      <c r="X32" t="s">
+        <v>238</v>
+      </c>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
@@ -3897,7 +4708,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3906,45 +4717,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -3960,7 +4765,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3969,31 +4774,33 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4005,7 +4812,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -4021,7 +4828,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4030,30 +4837,32 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J35" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K35" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
@@ -4066,7 +4875,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -4082,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4091,49 +4900,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>273</v>
-      </c>
-      <c r="X36" t="s">
-        <v>274</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -4149,7 +4948,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4158,28 +4957,30 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J37" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>5</v>
@@ -4194,7 +4995,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
@@ -4210,7 +5011,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4219,45 +5020,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K38" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
@@ -4273,7 +5068,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4282,37 +5077,35 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" t="n">
+        <v>98</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4320,7 +5113,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
@@ -4336,7 +5129,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4345,26 +5138,22 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>286</v>
-      </c>
-      <c r="O40" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
@@ -4375,13 +5164,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="X40" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Y40" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
@@ -4397,7 +5186,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4406,39 +5195,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="J41" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K41" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="L41" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="O41" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>294</v>
+      </c>
+      <c r="X41" t="s">
+        <v>295</v>
+      </c>
       <c r="Y41" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
@@ -4454,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4463,37 +5262,35 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4501,7 +5298,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
@@ -4517,7 +5314,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4526,31 +5323,31 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J43" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K43" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4564,7 +5361,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -4580,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4589,41 +5386,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4631,7 +5422,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
@@ -4647,7 +5438,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4656,49 +5447,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="J45" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>318</v>
+      </c>
+      <c r="X45" t="s">
+        <v>319</v>
+      </c>
       <c r="Y45" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46">
@@ -4714,7 +5499,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4723,49 +5508,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>326</v>
+      </c>
+      <c r="X46" t="s">
+        <v>327</v>
+      </c>
       <c r="Y46" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
@@ -4781,7 +5564,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4790,35 +5573,31 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J47" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K47" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="L47" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
@@ -4832,7 +5611,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48">
@@ -4848,7 +5627,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4857,49 +5636,39 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49">
@@ -4915,7 +5684,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4924,35 +5693,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J49" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+      <c r="N49" t="s">
+        <v>312</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
@@ -4968,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4977,49 +5754,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J50" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
@@ -5035,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5044,38 +5811,32 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K51" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
       </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5086,7 +5847,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52">
@@ -5102,7 +5863,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5111,38 +5872,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K52" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>5</v>
       </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5153,7 +5910,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53">
@@ -5169,7 +5926,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5178,41 +5935,37 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J53" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5220,7 +5973,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54">
@@ -5236,7 +5989,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5245,41 +5998,37 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J54" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K54" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5287,7 +6036,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55">
@@ -5303,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5312,41 +6061,37 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J55" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K55" t="s">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5354,7 +6099,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56">
@@ -5370,7 +6115,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5379,41 +6124,37 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J56" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K56" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
         <v>5</v>
       </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5421,7 +6162,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
@@ -5437,7 +6178,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5446,38 +6187,32 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J57" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>5</v>
@@ -5488,7 +6223,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58">
@@ -5504,7 +6239,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5513,49 +6248,39 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J58" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>404</v>
+        <v>279</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59">
@@ -5571,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5580,38 +6305,34 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="J59" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K59" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="L59" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
         <v>5</v>
@@ -5622,7 +6343,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60">
@@ -5638,7 +6359,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5647,41 +6368,35 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="J60" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="K60" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="L60" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5689,7 +6404,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61">
@@ -5705,7 +6420,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5714,49 +6429,49 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="J61" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="L61" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>410</v>
+      </c>
+      <c r="X61" t="s">
+        <v>411</v>
+      </c>
       <c r="Y61" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62">
@@ -5772,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5781,35 +6496,29 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="K62" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>5</v>
       </c>
@@ -5823,7 +6532,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63">
@@ -5839,7 +6548,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5848,41 +6557,37 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="J63" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="K63" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
-      <c r="N63" t="s">
-        <v>436</v>
-      </c>
-      <c r="O63" t="s">
-        <v>59</v>
-      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
       <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
         <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -5890,7 +6595,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64">
@@ -5906,7 +6611,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5915,41 +6620,35 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="J64" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="K64" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="n">
         <v>5</v>
       </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -5957,7 +6656,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65">
@@ -5973,7 +6672,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -5982,38 +6681,34 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J65" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K65" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="n">
         <v>5</v>
       </c>
       <c r="R65" t="n">
         <v>5</v>
       </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6024,7 +6719,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66">
@@ -6040,7 +6735,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6049,37 +6744,33 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J66" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>428</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
         <v>4</v>
       </c>
-      <c r="N66" t="s">
-        <v>456</v>
-      </c>
-      <c r="O66" t="s">
-        <v>53</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
@@ -6091,7 +6782,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
@@ -6107,7 +6798,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6116,25 +6807,25 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="J67" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="K67" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="L67" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6145,10 +6836,14 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>445</v>
+      </c>
+      <c r="X67" t="s">
+        <v>446</v>
+      </c>
       <c r="Y67" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68">
@@ -6164,7 +6859,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6173,45 +6868,49 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="J68" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="K68" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="s"/>
       <c r="R68" t="s"/>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>454</v>
+      </c>
+      <c r="X68" t="s">
+        <v>455</v>
+      </c>
       <c r="Y68" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69">
@@ -6227,7 +6926,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6236,37 +6935,37 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="J69" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="K69" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="L69" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6274,7 +6973,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70">
@@ -6290,7 +6989,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6299,49 +6998,3203 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="J70" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K70" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="L70" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
-      </c>
-      <c r="P70" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>5</v>
-      </c>
-      <c r="R70" t="n">
-        <v>5</v>
-      </c>
-      <c r="S70" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>5</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>470</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>471</v>
+      </c>
+      <c r="J71" t="s">
+        <v>472</v>
+      </c>
+      <c r="K71" t="s">
+        <v>473</v>
+      </c>
+      <c r="L71" t="s">
+        <v>474</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>475</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>477</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>478</v>
+      </c>
+      <c r="J72" t="s">
         <v>479</v>
+      </c>
+      <c r="K72" t="s">
+        <v>480</v>
+      </c>
+      <c r="L72" t="s">
+        <v>481</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>475</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>483</v>
+      </c>
+      <c r="J73" t="s">
+        <v>479</v>
+      </c>
+      <c r="K73" t="s">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s">
+        <v>485</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>475</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>486</v>
+      </c>
+      <c r="X73" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>489</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>490</v>
+      </c>
+      <c r="J74" t="s">
+        <v>491</v>
+      </c>
+      <c r="K74" t="s">
+        <v>492</v>
+      </c>
+      <c r="L74" t="s">
+        <v>493</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>98</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>495</v>
+      </c>
+      <c r="X74" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>499</v>
+      </c>
+      <c r="J75" t="s">
+        <v>500</v>
+      </c>
+      <c r="K75" t="s">
+        <v>501</v>
+      </c>
+      <c r="L75" t="s">
+        <v>502</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>503</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>504</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>505</v>
+      </c>
+      <c r="J76" t="s">
+        <v>506</v>
+      </c>
+      <c r="K76" t="s">
+        <v>507</v>
+      </c>
+      <c r="L76" t="s">
+        <v>508</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>462</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>509</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>511</v>
+      </c>
+      <c r="K77" t="s">
+        <v>512</v>
+      </c>
+      <c r="L77" t="s">
+        <v>513</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>462</v>
+      </c>
+      <c r="O77" t="s">
+        <v>98</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>514</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>515</v>
+      </c>
+      <c r="J78" t="s">
+        <v>516</v>
+      </c>
+      <c r="K78" t="s">
+        <v>517</v>
+      </c>
+      <c r="L78" t="s">
+        <v>518</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>519</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>520</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>521</v>
+      </c>
+      <c r="J79" t="s">
+        <v>522</v>
+      </c>
+      <c r="K79" t="s">
+        <v>523</v>
+      </c>
+      <c r="L79" t="s">
+        <v>524</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>525</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>526</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>527</v>
+      </c>
+      <c r="J80" t="s">
+        <v>528</v>
+      </c>
+      <c r="K80" t="s">
+        <v>529</v>
+      </c>
+      <c r="L80" t="s">
+        <v>530</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>531</v>
+      </c>
+      <c r="O80" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>532</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>533</v>
+      </c>
+      <c r="J81" t="s">
+        <v>534</v>
+      </c>
+      <c r="K81" t="s">
+        <v>535</v>
+      </c>
+      <c r="L81" t="s">
+        <v>536</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>537</v>
+      </c>
+      <c r="O81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>538</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>539</v>
+      </c>
+      <c r="J82" t="s">
+        <v>540</v>
+      </c>
+      <c r="K82" t="s">
+        <v>541</v>
+      </c>
+      <c r="L82" t="s">
+        <v>542</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>545</v>
+      </c>
+      <c r="J83" t="s">
+        <v>546</v>
+      </c>
+      <c r="K83" t="s">
+        <v>547</v>
+      </c>
+      <c r="L83" t="s">
+        <v>548</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>549</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>550</v>
+      </c>
+      <c r="J84" t="s">
+        <v>551</v>
+      </c>
+      <c r="K84" t="s">
+        <v>535</v>
+      </c>
+      <c r="L84" t="s">
+        <v>552</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>553</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>554</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>555</v>
+      </c>
+      <c r="J85" t="s">
+        <v>556</v>
+      </c>
+      <c r="K85" t="s">
+        <v>557</v>
+      </c>
+      <c r="L85" t="s">
+        <v>558</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>559</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>560</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>561</v>
+      </c>
+      <c r="J86" t="s">
+        <v>556</v>
+      </c>
+      <c r="K86" t="s">
+        <v>562</v>
+      </c>
+      <c r="L86" t="s">
+        <v>563</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>559</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>564</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>565</v>
+      </c>
+      <c r="J87" t="s">
+        <v>556</v>
+      </c>
+      <c r="K87" t="s">
+        <v>566</v>
+      </c>
+      <c r="L87" t="s">
+        <v>567</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>568</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>570</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>571</v>
+      </c>
+      <c r="J88" t="s">
+        <v>572</v>
+      </c>
+      <c r="K88" t="s">
+        <v>573</v>
+      </c>
+      <c r="L88" t="s">
+        <v>574</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>575</v>
+      </c>
+      <c r="O88" t="s">
+        <v>98</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>577</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>578</v>
+      </c>
+      <c r="J89" t="s">
+        <v>579</v>
+      </c>
+      <c r="K89" t="s">
+        <v>580</v>
+      </c>
+      <c r="L89" t="s">
+        <v>581</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>559</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>582</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>583</v>
+      </c>
+      <c r="J90" t="s">
+        <v>584</v>
+      </c>
+      <c r="K90" t="s">
+        <v>585</v>
+      </c>
+      <c r="L90" t="s">
+        <v>586</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>587</v>
+      </c>
+      <c r="O90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>588</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>589</v>
+      </c>
+      <c r="J91" t="s">
+        <v>590</v>
+      </c>
+      <c r="K91" t="s">
+        <v>591</v>
+      </c>
+      <c r="L91" t="s">
+        <v>592</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>575</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>593</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>594</v>
+      </c>
+      <c r="J92" t="s">
+        <v>595</v>
+      </c>
+      <c r="K92" t="s">
+        <v>217</v>
+      </c>
+      <c r="L92" t="s">
+        <v>596</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>597</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>599</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>600</v>
+      </c>
+      <c r="J93" t="s">
+        <v>601</v>
+      </c>
+      <c r="K93" t="s">
+        <v>602</v>
+      </c>
+      <c r="L93" t="s">
+        <v>603</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>587</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>605</v>
+      </c>
+      <c r="J94" t="s">
+        <v>606</v>
+      </c>
+      <c r="K94" t="s">
+        <v>607</v>
+      </c>
+      <c r="L94" t="s">
+        <v>608</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>587</v>
+      </c>
+      <c r="O94" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>610</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>611</v>
+      </c>
+      <c r="J95" t="s">
+        <v>612</v>
+      </c>
+      <c r="K95" t="s">
+        <v>613</v>
+      </c>
+      <c r="L95" t="s">
+        <v>614</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>587</v>
+      </c>
+      <c r="O95" t="s">
+        <v>98</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>615</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>616</v>
+      </c>
+      <c r="J96" t="s">
+        <v>617</v>
+      </c>
+      <c r="K96" t="s">
+        <v>618</v>
+      </c>
+      <c r="L96" t="s">
+        <v>619</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>620</v>
+      </c>
+      <c r="O96" t="s">
+        <v>98</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>621</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>622</v>
+      </c>
+      <c r="J97" t="s">
+        <v>623</v>
+      </c>
+      <c r="K97" t="s">
+        <v>624</v>
+      </c>
+      <c r="L97" t="s">
+        <v>625</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>626</v>
+      </c>
+      <c r="O97" t="s">
+        <v>59</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>628</v>
+      </c>
+      <c r="J98" t="s">
+        <v>629</v>
+      </c>
+      <c r="K98" t="s">
+        <v>630</v>
+      </c>
+      <c r="L98" t="s">
+        <v>631</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>626</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>633</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>634</v>
+      </c>
+      <c r="J99" t="s">
+        <v>635</v>
+      </c>
+      <c r="K99" t="s">
+        <v>636</v>
+      </c>
+      <c r="L99" t="s">
+        <v>637</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>638</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>639</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>640</v>
+      </c>
+      <c r="J100" t="s">
+        <v>641</v>
+      </c>
+      <c r="K100" t="s">
+        <v>642</v>
+      </c>
+      <c r="L100" t="s">
+        <v>643</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>644</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>646</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>647</v>
+      </c>
+      <c r="J101" t="s">
+        <v>648</v>
+      </c>
+      <c r="K101" t="s">
+        <v>649</v>
+      </c>
+      <c r="L101" t="s">
+        <v>650</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>651</v>
+      </c>
+      <c r="O101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>653</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>654</v>
+      </c>
+      <c r="J102" t="s">
+        <v>655</v>
+      </c>
+      <c r="K102" t="s">
+        <v>656</v>
+      </c>
+      <c r="L102" t="s">
+        <v>657</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>651</v>
+      </c>
+      <c r="O102" t="s">
+        <v>164</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>658</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>659</v>
+      </c>
+      <c r="J103" t="s">
+        <v>660</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>661</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>662</v>
+      </c>
+      <c r="O103" t="s">
+        <v>98</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>664</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>665</v>
+      </c>
+      <c r="J104" t="s">
+        <v>666</v>
+      </c>
+      <c r="K104" t="s">
+        <v>667</v>
+      </c>
+      <c r="L104" t="s">
+        <v>668</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>662</v>
+      </c>
+      <c r="O104" t="s">
+        <v>98</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>669</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>670</v>
+      </c>
+      <c r="J105" t="s">
+        <v>671</v>
+      </c>
+      <c r="K105" t="s">
+        <v>672</v>
+      </c>
+      <c r="L105" t="s">
+        <v>673</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>662</v>
+      </c>
+      <c r="O105" t="s">
+        <v>98</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>675</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>676</v>
+      </c>
+      <c r="J106" t="s">
+        <v>677</v>
+      </c>
+      <c r="K106" t="s">
+        <v>678</v>
+      </c>
+      <c r="L106" t="s">
+        <v>679</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>680</v>
+      </c>
+      <c r="O106" t="s">
+        <v>59</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>682</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>683</v>
+      </c>
+      <c r="J107" t="s">
+        <v>684</v>
+      </c>
+      <c r="K107" t="s">
+        <v>685</v>
+      </c>
+      <c r="L107" t="s">
+        <v>686</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>687</v>
+      </c>
+      <c r="O107" t="s">
+        <v>52</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>688</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>689</v>
+      </c>
+      <c r="J108" t="s">
+        <v>690</v>
+      </c>
+      <c r="K108" t="s">
+        <v>691</v>
+      </c>
+      <c r="L108" t="s">
+        <v>692</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>693</v>
+      </c>
+      <c r="O108" t="s">
+        <v>98</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>695</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>696</v>
+      </c>
+      <c r="J109" t="s">
+        <v>697</v>
+      </c>
+      <c r="K109" t="s">
+        <v>698</v>
+      </c>
+      <c r="L109" t="s">
+        <v>699</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>693</v>
+      </c>
+      <c r="O109" t="s">
+        <v>98</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>700</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>701</v>
+      </c>
+      <c r="J110" t="s">
+        <v>702</v>
+      </c>
+      <c r="K110" t="s">
+        <v>703</v>
+      </c>
+      <c r="L110" t="s">
+        <v>704</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>693</v>
+      </c>
+      <c r="O110" t="s">
+        <v>52</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>706</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>707</v>
+      </c>
+      <c r="J111" t="s">
+        <v>708</v>
+      </c>
+      <c r="K111" t="s">
+        <v>709</v>
+      </c>
+      <c r="L111" t="s">
+        <v>710</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>711</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>713</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>714</v>
+      </c>
+      <c r="J112" t="s">
+        <v>715</v>
+      </c>
+      <c r="K112" t="s">
+        <v>716</v>
+      </c>
+      <c r="L112" t="s">
+        <v>717</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>711</v>
+      </c>
+      <c r="O112" t="s">
+        <v>98</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>718</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>719</v>
+      </c>
+      <c r="J113" t="s">
+        <v>720</v>
+      </c>
+      <c r="K113" t="s">
+        <v>721</v>
+      </c>
+      <c r="L113" t="s">
+        <v>722</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>723</v>
+      </c>
+      <c r="O113" t="s">
+        <v>52</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>724</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>725</v>
+      </c>
+      <c r="J114" t="s">
+        <v>726</v>
+      </c>
+      <c r="K114" t="s">
+        <v>727</v>
+      </c>
+      <c r="L114" t="s">
+        <v>728</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>729</v>
+      </c>
+      <c r="O114" t="s">
+        <v>52</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>730</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>731</v>
+      </c>
+      <c r="J115" t="s">
+        <v>732</v>
+      </c>
+      <c r="K115" t="s">
+        <v>733</v>
+      </c>
+      <c r="L115" t="s">
+        <v>734</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>735</v>
+      </c>
+      <c r="O115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>737</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>738</v>
+      </c>
+      <c r="J116" t="s">
+        <v>739</v>
+      </c>
+      <c r="K116" t="s">
+        <v>740</v>
+      </c>
+      <c r="L116" t="s">
+        <v>741</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>735</v>
+      </c>
+      <c r="O116" t="s">
+        <v>98</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>742</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>743</v>
+      </c>
+      <c r="J117" t="s">
+        <v>744</v>
+      </c>
+      <c r="K117" t="s">
+        <v>745</v>
+      </c>
+      <c r="L117" t="s">
+        <v>746</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>729</v>
+      </c>
+      <c r="O117" t="s">
+        <v>59</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>60196</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>747</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>748</v>
+      </c>
+      <c r="J118" t="s">
+        <v>749</v>
+      </c>
+      <c r="K118" t="s">
+        <v>750</v>
+      </c>
+      <c r="L118" t="s">
+        <v>751</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" t="s">
+        <v>752</v>
+      </c>
+      <c r="O118" t="s">
+        <v>98</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
